--- a/Arquivos/Excel/resultados_multicore.xlsx
+++ b/Arquivos/Excel/resultados_multicore.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Desktop\GitDesk\Arquivos\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C894F8-B29B-452C-BDFD-5E684EC1FF8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE7757F-E431-4548-A338-857C3A96493F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="483" xr2:uid="{7C13D048-D369-4CF7-941B-2AB5863FD600}"/>
+    <workbookView xWindow="-24120" yWindow="-1305" windowWidth="24240" windowHeight="13290" tabRatio="483" xr2:uid="{7C13D048-D369-4CF7-941B-2AB5863FD600}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="6" r:id="rId2"/>
-    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
-    <sheet name="Planilha4" sheetId="4" r:id="rId4"/>
-    <sheet name="Planilha5" sheetId="5" r:id="rId5"/>
+    <sheet name="Planilha6" sheetId="7" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="6" r:id="rId3"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId4"/>
+    <sheet name="Planilha4" sheetId="4" r:id="rId5"/>
+    <sheet name="Planilha5" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>clocks</t>
   </si>
@@ -94,12 +95,6 @@
     <t>Antigo</t>
   </si>
   <si>
-    <t>EL29</t>
-  </si>
-  <si>
-    <t>MLT29</t>
-  </si>
-  <si>
     <t>29 bits</t>
   </si>
   <si>
@@ -119,6 +114,15 @@
   </si>
   <si>
     <t>no modelsim, as duas configurações de bits tem a saida correta</t>
+  </si>
+  <si>
+    <t>tb/2</t>
+  </si>
+  <si>
+    <t>MHz*2</t>
+  </si>
+  <si>
+    <t>NORM</t>
   </si>
 </sst>
 </file>
@@ -501,6 +505,2641 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha6!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Processadores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha6!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha6!$G$2:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-971E-4065-82DC-B97E39188F52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="247"/>
+        <c:axId val="110171312"/>
+        <c:axId val="85434416"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha6!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo de Atraso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="4"/>
+              <c:spPr>
+                <a:gradFill rotWithShape="1">
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="110000"/>
+                        <a:satMod val="105000"/>
+                        <a:tint val="67000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="50000">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="105000"/>
+                        <a:satMod val="103000"/>
+                        <a:tint val="73000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="105000"/>
+                        <a:satMod val="109000"/>
+                        <a:tint val="81000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:shade val="95000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-971E-4065-82DC-B97E39188F52}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha6!$K$2:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>189.046875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153.9425</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129.63958650000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112.08750599999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.5859375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.784725000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.683750000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72.932958499999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.532302000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.131746</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.081254999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.030839499999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.330478499999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.630155500000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.929863499999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44.579610000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.879375000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.529179499999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.178993499999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.828805500000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36.478654999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.128500000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-971E-4065-82DC-B97E39188F52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="93125648"/>
+        <c:axId val="115242624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="110171312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>frequência</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> operacional [mhz]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85434416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85434416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Número de processadores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110171312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="115242624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>tempo de atraso [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>microssegundos</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.93279229801715291"/>
+              <c:y val="6.8924974882590709E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93125648"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="15"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="93125648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115242624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29681671114410113"/>
+          <c:y val="0.15596626089394613"/>
+          <c:w val="0.57749209165065529"/>
+          <c:h val="6.6766045935652718E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elementos Lógicos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha3!$A$2:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha3!$D$2:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>101665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39564</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38043</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36477</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35712</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34946</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34554</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35743</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35177</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33389</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33649</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33649</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E9EF-432C-9AEC-3985CE15DB2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="247"/>
+        <c:axId val="110171312"/>
+        <c:axId val="85434416"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multiplicadores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha3!$E$2:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E9EF-432C-9AEC-3985CE15DB2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="93125648"/>
+        <c:axId val="115242624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="110171312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>frequência</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> operacional [mhz]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85434416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85434416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Número</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de elementos lógicos</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110171312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="115242624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>número</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de multiplicadores</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93125648"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="93125648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115242624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29212476347433314"/>
+          <c:y val="0.16701938045709902"/>
+          <c:w val="0.57380794451168571"/>
+          <c:h val="6.6766045935652718E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha6!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elementos Lógicos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha6!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha6!$M$2:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>93159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49590</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49607</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41267</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39684</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38241</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37974</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36064</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35321</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34615</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33880</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33510</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32786</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32426</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34317</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33633</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32943</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95F3-4E35-9A94-E67BD971A358}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="247"/>
+        <c:axId val="110171312"/>
+        <c:axId val="85434416"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha6!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multiplicadores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha6!$N$2:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="#,##0">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="#,##0">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="#,##0">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="#,##0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="#,##0">
+                  <c:v>144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-95F3-4E35-9A94-E67BD971A358}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="93125648"/>
+        <c:axId val="115242624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="110171312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>frequência</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> operacional [mhz]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85434416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85434416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Número</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de elementos lógicos</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110171312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="115242624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>número</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de multiplicadores</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93125648"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="93125648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115242624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29776253655396667"/>
+          <c:y val="4.0944881889763786E-2"/>
+          <c:w val="0.57380794451168571"/>
+          <c:h val="6.6766045935652718E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1417,7 +4056,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2276,7 +4915,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2811,7 +5450,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -3670,7 +6309,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -4514,7 +7153,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -5005,7 +7644,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -5874,866 +8513,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha3!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Elementos Lógicos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Planilha3!$A$2:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>680</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>760</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>920</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha3!$D$2:$D$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>101665</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>76576</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>61612</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60352</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>52500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47234</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>47750</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43048</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41088</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>39557</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>39564</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>38043</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>36477</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>35712</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>34946</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>34554</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35743</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35177</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>33993</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>33389</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>33649</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>33649</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E9EF-432C-9AEC-3985CE15DB2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="247"/>
-        <c:axId val="110171312"/>
-        <c:axId val="85434416"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha3!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Multiplicadores</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="15875" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha3!$E$2:$E$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>150</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E9EF-432C-9AEC-3985CE15DB2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="93125648"/>
-        <c:axId val="115242624"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="110171312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>frequência</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> operacional [mhz]</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="85434416"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="85434416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR"/>
-                  <a:t>Número</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pt-BR" baseline="0"/>
-                  <a:t> de elementos lógicos</a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="110171312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="10000"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="115242624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR"/>
-                  <a:t>número</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pt-BR" baseline="0"/>
-                  <a:t> de multiplicadores</a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="93125648"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="50"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="93125648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115242624"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.29212476347433314"/>
-          <c:y val="0.16701938045709902"/>
-          <c:w val="0.57380794451168571"/>
-          <c:h val="6.6766045935652718E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7053,6 +8873,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
@@ -7576,7 +9436,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8099,7 +9959,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8622,7 +10482,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9145,7 +11005,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9668,7 +11528,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10191,7 +12051,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10714,7 +12574,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11237,7 +13097,1478 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>78125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3376B9-9EA0-4939-940A-2C5AE898A442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>258233</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63D55238-3231-42C5-B628-4486F3268B5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E258BBC5-5F6C-47C2-8892-EDC51E814A5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.29842</cdr:x>
+      <cdr:y>0.87153</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48814</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A6FBAD-9177-4579-933E-23D9AAF26606}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1438275" y="2390774"/>
+          <a:ext cx="914400" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609598</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2505F29-4B9F-422C-8486-7240EBDD7517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.29842</cdr:x>
+      <cdr:y>0.87153</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48814</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A6FBAD-9177-4579-933E-23D9AAF26606}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1438275" y="2390774"/>
+          <a:ext cx="914400" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F75FB948-B6DC-4620-AA63-1BEF3EF08FA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.29842</cdr:x>
+      <cdr:y>0.87153</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48814</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A6FBAD-9177-4579-933E-23D9AAF26606}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1438275" y="2390774"/>
+          <a:ext cx="914400" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.29842</cdr:x>
+      <cdr:y>0.87153</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48814</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A6FBAD-9177-4579-933E-23D9AAF26606}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1438275" y="2390774"/>
+          <a:ext cx="914400" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.29842</cdr:x>
+      <cdr:y>0.87153</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48814</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A6FBAD-9177-4579-933E-23D9AAF26606}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1438275" y="2390774"/>
+          <a:ext cx="914400" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11432,264 +14763,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.29842</cdr:x>
-      <cdr:y>0.87153</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.48814</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="CaixaDeTexto 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A6FBAD-9177-4579-933E-23D9AAF26606}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1438275" y="2390774"/>
-          <a:ext cx="914400" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F75FB948-B6DC-4620-AA63-1BEF3EF08FA5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.29842</cdr:x>
-      <cdr:y>0.87153</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.48814</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="CaixaDeTexto 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A6FBAD-9177-4579-933E-23D9AAF26606}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1438275" y="2390774"/>
-          <a:ext cx="914400" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.29842</cdr:x>
-      <cdr:y>0.87153</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.48814</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="CaixaDeTexto 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A6FBAD-9177-4579-933E-23D9AAF26606}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1438275" y="2390774"/>
-          <a:ext cx="914400" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.29842</cdr:x>
-      <cdr:y>0.87153</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.48814</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="CaixaDeTexto 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A6FBAD-9177-4579-933E-23D9AAF26606}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1438275" y="2390774"/>
-          <a:ext cx="914400" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.29842</cdr:x>
-      <cdr:y>0.87153</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.48814</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="CaixaDeTexto 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A6FBAD-9177-4579-933E-23D9AAF26606}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1438275" y="2390774"/>
-          <a:ext cx="914400" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
@@ -11777,46 +14850,46 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
-          <a:extLst>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.29842</cdr:x>
+      <cdr:y>0.87153</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48814</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E258BBC5-5F6C-47C2-8892-EDC51E814A5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A6FBAD-9177-4579-933E-23D9AAF26606}"/>
             </a:ext>
           </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1438275" y="2390774"/>
+          <a:ext cx="914400" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11863,46 +14936,46 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>609598</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.29842</cdr:x>
+      <cdr:y>0.87153</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48814</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2505F29-4B9F-422C-8486-7240EBDD7517}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A6FBAD-9177-4579-933E-23D9AAF26606}"/>
             </a:ext>
           </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1438275" y="2390774"/>
+          <a:ext cx="914400" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12201,17 +15274,1398 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7955FCB8-867E-43F2-8076-D8AB814E01C6}">
+  <dimension ref="A1:Z23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+    <col min="25" max="25" width="20.140625" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="X1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>320</v>
+      </c>
+      <c r="C2" s="1">
+        <f>1/B2*1000000</f>
+        <v>3125</v>
+      </c>
+      <c r="D2" s="12">
+        <v>186781.25</v>
+      </c>
+      <c r="E2" s="1">
+        <f>G2*F2+J2</f>
+        <v>189046.875</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G2" s="2">
+        <f>ROUNDUP(D2/F2,0)+1</f>
+        <v>140</v>
+      </c>
+      <c r="H2">
+        <f>1/I2*1000000</f>
+        <v>320</v>
+      </c>
+      <c r="I2" s="10">
+        <f>ROUNDUP(C2,0)</f>
+        <v>3125</v>
+      </c>
+      <c r="J2" s="13">
+        <v>46.875</v>
+      </c>
+      <c r="K2">
+        <f>E2/1000</f>
+        <v>189.046875</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0</v>
+      </c>
+      <c r="M2" s="14">
+        <v>93159</v>
+      </c>
+      <c r="N2" s="15">
+        <v>532</v>
+      </c>
+      <c r="O2" s="16">
+        <v>13719156</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Y2" s="5">
+        <v>101665</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>400</v>
+      </c>
+      <c r="C3" s="1">
+        <f>1/B3*1000000</f>
+        <v>2500</v>
+      </c>
+      <c r="D3" s="12">
+        <v>151242.5</v>
+      </c>
+      <c r="E3" s="1">
+        <f>G3*F3+J3</f>
+        <v>153942.5</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G23" si="0">ROUNDUP(D3/F3,0)+1</f>
+        <v>114</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H23" si="1">1/I3*1000000</f>
+        <v>400</v>
+      </c>
+      <c r="I3" s="10">
+        <f t="shared" ref="I3:I23" si="2">ROUNDUP(C3,0)</f>
+        <v>2500</v>
+      </c>
+      <c r="J3" s="13">
+        <v>42.5</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K23" si="3">E3/1000</f>
+        <v>153.9425</v>
+      </c>
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
+      <c r="M3" s="14">
+        <v>71888</v>
+      </c>
+      <c r="N3" s="15">
+        <v>532</v>
+      </c>
+      <c r="O3" s="16">
+        <v>11087632</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>76576</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>480</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C23" si="4">1/B4*1000000</f>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="D4" s="12">
+        <v>126949.73850000001</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E23" si="5">G4*F4+J4</f>
+        <v>129639.5865</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>479.84644913627636</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" si="2"/>
+        <v>2084</v>
+      </c>
+      <c r="J4" s="13">
+        <v>39.586500000000001</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>129.63958650000001</v>
+      </c>
+      <c r="L4" s="10">
+        <v>2</v>
+      </c>
+      <c r="M4" s="17">
+        <v>58330</v>
+      </c>
+      <c r="N4" s="12">
+        <v>532</v>
+      </c>
+      <c r="O4" s="16">
+        <v>9400042</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>61612</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>560</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="4"/>
+        <v>1785.7142857142856</v>
+      </c>
+      <c r="D5" s="12">
+        <v>109405.00199999998</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="5"/>
+        <v>112087.50599999999</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>559.91041433370663</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" si="2"/>
+        <v>1786</v>
+      </c>
+      <c r="J5" s="13">
+        <v>37.506</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>112.08750599999999</v>
+      </c>
+      <c r="L5" s="10">
+        <v>3</v>
+      </c>
+      <c r="M5" s="17">
+        <v>57149</v>
+      </c>
+      <c r="N5" s="12">
+        <v>400</v>
+      </c>
+      <c r="O5" s="16">
+        <v>8181341</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>60352</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>640</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="4"/>
+        <v>1562.5</v>
+      </c>
+      <c r="D6" s="12">
+        <v>95885.9375</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="5"/>
+        <v>98585.9375</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>639.79526551503511</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="2"/>
+        <v>1563</v>
+      </c>
+      <c r="J6" s="13">
+        <v>35.9375</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>98.5859375</v>
+      </c>
+      <c r="L6" s="10">
+        <v>4</v>
+      </c>
+      <c r="M6" s="17">
+        <v>49590</v>
+      </c>
+      <c r="N6" s="12">
+        <v>400</v>
+      </c>
+      <c r="O6" s="16">
+        <v>7242537</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>52500</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>720</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="4"/>
+        <v>1388.8888888888889</v>
+      </c>
+      <c r="D7" s="12">
+        <v>85091.52900000001</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="5"/>
+        <v>87784.725000000006</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>719.94240460763137</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="2"/>
+        <v>1389</v>
+      </c>
+      <c r="J7" s="13">
+        <v>34.725000000000001</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>87.784725000000009</v>
+      </c>
+      <c r="L7" s="10">
+        <v>5</v>
+      </c>
+      <c r="M7" s="17">
+        <v>49607</v>
+      </c>
+      <c r="N7" s="12">
+        <v>308</v>
+      </c>
+      <c r="O7" s="16">
+        <v>6489647</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>47234</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>800</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="D8" s="12">
+        <v>76983.75</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="5"/>
+        <v>79683.75</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+      <c r="J8" s="13">
+        <v>33.75</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>79.683750000000003</v>
+      </c>
+      <c r="L8" s="10">
+        <v>6</v>
+      </c>
+      <c r="M8" s="17">
+        <v>45052</v>
+      </c>
+      <c r="N8" s="12">
+        <v>308</v>
+      </c>
+      <c r="O8" s="16">
+        <v>5926827</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>47750</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>880</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="4"/>
+        <v>1136.3636363636363</v>
+      </c>
+      <c r="D9" s="12">
+        <v>70241.382499999992</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="5"/>
+        <v>72932.958499999993</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>879.50747581354449</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="2"/>
+        <v>1137</v>
+      </c>
+      <c r="J9" s="13">
+        <v>32.958500000000001</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>72.932958499999998</v>
+      </c>
+      <c r="L9" s="10">
+        <v>7</v>
+      </c>
+      <c r="M9" s="17">
+        <v>41267</v>
+      </c>
+      <c r="N9" s="12">
+        <v>308</v>
+      </c>
+      <c r="O9" s="16">
+        <v>5460964</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>43048</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>960</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="4"/>
+        <v>1041.6666666666667</v>
+      </c>
+      <c r="D10" s="12">
+        <v>64853.038000000008</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="5"/>
+        <v>67532.301999999996</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>959.69289827255272</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="2"/>
+        <v>1042</v>
+      </c>
+      <c r="J10" s="13">
+        <v>32.302</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>67.532302000000001</v>
+      </c>
+      <c r="L10" s="10">
+        <v>8</v>
+      </c>
+      <c r="M10" s="17">
+        <v>39684</v>
+      </c>
+      <c r="N10" s="12">
+        <v>288</v>
+      </c>
+      <c r="O10" s="16">
+        <v>5089136</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>41088</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1040</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="4"/>
+        <v>961.53846153846155</v>
+      </c>
+      <c r="D11" s="12">
+        <v>59460.257999999994</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="5"/>
+        <v>62131.745999999999</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>1039.5010395010395</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="2"/>
+        <v>962</v>
+      </c>
+      <c r="J11" s="13">
+        <v>31.745999999999999</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>62.131746</v>
+      </c>
+      <c r="L11" s="10">
+        <v>9</v>
+      </c>
+      <c r="M11" s="17">
+        <v>38241</v>
+      </c>
+      <c r="N11" s="12">
+        <v>264</v>
+      </c>
+      <c r="O11" s="16">
+        <v>4709100</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>39557</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1120</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="4"/>
+        <v>892.85714285714278</v>
+      </c>
+      <c r="D12" s="12">
+        <v>55390.11099999999</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="5"/>
+        <v>58081.254999999997</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>1119.8208286674133</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="2"/>
+        <v>893</v>
+      </c>
+      <c r="J12" s="13">
+        <v>31.254999999999999</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>58.081254999999999</v>
+      </c>
+      <c r="L12" s="10">
+        <v>10</v>
+      </c>
+      <c r="M12" s="17">
+        <v>37974</v>
+      </c>
+      <c r="N12" s="12">
+        <v>232</v>
+      </c>
+      <c r="O12" s="16">
+        <v>4429203</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>39564</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="4"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="D13" s="12">
+        <v>51341.099500000004</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="5"/>
+        <v>54030.839500000002</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>1199.0407673860911</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="2"/>
+        <v>834</v>
+      </c>
+      <c r="J13" s="13">
+        <v>30.839500000000001</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>54.030839499999999</v>
+      </c>
+      <c r="L13" s="10">
+        <v>11</v>
+      </c>
+      <c r="M13" s="17">
+        <v>36064</v>
+      </c>
+      <c r="N13" s="14">
+        <v>228</v>
+      </c>
+      <c r="O13" s="16">
+        <v>4143150</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>38043</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1280</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="4"/>
+        <v>781.25</v>
+      </c>
+      <c r="D14" s="12">
+        <v>48646.030500000001</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="5"/>
+        <v>51330.478499999997</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>1278.7723785166243</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="2"/>
+        <v>782</v>
+      </c>
+      <c r="J14" s="13">
+        <v>30.4785</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>51.330478499999998</v>
+      </c>
+      <c r="L14" s="10">
+        <v>12</v>
+      </c>
+      <c r="M14" s="17">
+        <v>35321</v>
+      </c>
+      <c r="N14" s="14">
+        <v>216</v>
+      </c>
+      <c r="O14" s="16">
+        <v>3961340</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>36477</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1360</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="4"/>
+        <v>735.29411764705878</v>
+      </c>
+      <c r="D15" s="12">
+        <v>45943.0075</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="5"/>
+        <v>48630.155500000001</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>1358.695652173913</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="2"/>
+        <v>736</v>
+      </c>
+      <c r="J15" s="13">
+        <v>30.1555</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>48.630155500000001</v>
+      </c>
+      <c r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="17">
+        <v>34615</v>
+      </c>
+      <c r="N15" s="14">
+        <v>204</v>
+      </c>
+      <c r="O15" s="16">
+        <v>3775426</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>35712</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1440</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="4"/>
+        <v>694.44444444444446</v>
+      </c>
+      <c r="D16" s="12">
+        <v>43233.319499999998</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="5"/>
+        <v>45929.863499999999</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>1438.8489208633093</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="2"/>
+        <v>695</v>
+      </c>
+      <c r="J16" s="13">
+        <v>29.863499999999998</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>45.929863499999996</v>
+      </c>
+      <c r="L16" s="10">
+        <v>14</v>
+      </c>
+      <c r="M16" s="17">
+        <v>33880</v>
+      </c>
+      <c r="N16" s="14">
+        <v>192</v>
+      </c>
+      <c r="O16" s="16">
+        <v>3585408</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>34946</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1520</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="4"/>
+        <v>657.8947368421052</v>
+      </c>
+      <c r="D17" s="12">
+        <v>41886.305999999997</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="5"/>
+        <v>44579.61</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>1519.7568389057751</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="2"/>
+        <v>658</v>
+      </c>
+      <c r="J17" s="13">
+        <v>29.61</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>44.579610000000002</v>
+      </c>
+      <c r="L17" s="10">
+        <v>15</v>
+      </c>
+      <c r="M17" s="17">
+        <v>33510</v>
+      </c>
+      <c r="N17" s="14">
+        <v>186</v>
+      </c>
+      <c r="O17" s="16">
+        <v>3504763</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>34554</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="4"/>
+        <v>625</v>
+      </c>
+      <c r="D18" s="12">
+        <v>39179.375</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="5"/>
+        <v>41879.375</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="2"/>
+        <v>625</v>
+      </c>
+      <c r="J18" s="13">
+        <v>29.375</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>41.879375000000003</v>
+      </c>
+      <c r="L18" s="10">
+        <v>16</v>
+      </c>
+      <c r="M18" s="17">
+        <v>32786</v>
+      </c>
+      <c r="N18" s="14">
+        <v>174</v>
+      </c>
+      <c r="O18" s="16">
+        <v>3307563</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>35743</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1680</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="4"/>
+        <v>595.2380952380953</v>
+      </c>
+      <c r="D19" s="12">
+        <v>37845.811499999996</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="5"/>
+        <v>40529.179499999998</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>1677.8523489932886</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="2"/>
+        <v>596</v>
+      </c>
+      <c r="J19" s="13">
+        <v>29.179500000000001</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>40.529179499999998</v>
+      </c>
+      <c r="L19" s="10">
+        <v>17</v>
+      </c>
+      <c r="M19" s="17">
+        <v>32426</v>
+      </c>
+      <c r="N19" s="14">
+        <v>168</v>
+      </c>
+      <c r="O19" s="16">
+        <v>3221788</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>35177</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1760</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="4"/>
+        <v>568.18181818181813</v>
+      </c>
+      <c r="D20" s="12">
+        <v>36499.405500000001</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="5"/>
+        <v>39178.993499999997</v>
+      </c>
+      <c r="F20" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>1757.4692442882249</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="2"/>
+        <v>569</v>
+      </c>
+      <c r="J20" s="13">
+        <v>28.993500000000001</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>39.178993499999997</v>
+      </c>
+      <c r="L20" s="10">
+        <v>18</v>
+      </c>
+      <c r="M20" s="17">
+        <v>34317</v>
+      </c>
+      <c r="N20" s="14">
+        <v>162</v>
+      </c>
+      <c r="O20" s="16">
+        <v>3133961</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>33993</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1840</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="4"/>
+        <v>543.47826086956525</v>
+      </c>
+      <c r="D21" s="12">
+        <v>35130.209500000004</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="5"/>
+        <v>37828.805500000002</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>1838.2352941176471</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="2"/>
+        <v>544</v>
+      </c>
+      <c r="J21" s="13">
+        <v>28.805499999999999</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>37.828805500000001</v>
+      </c>
+      <c r="L21" s="10">
+        <v>19</v>
+      </c>
+      <c r="M21" s="17">
+        <v>33633</v>
+      </c>
+      <c r="N21" s="17">
+        <v>156</v>
+      </c>
+      <c r="O21" s="16">
+        <v>3044082</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>33389</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1920</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="4"/>
+        <v>520.83333333333337</v>
+      </c>
+      <c r="D22" s="12">
+        <v>33789.455000000002</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="5"/>
+        <v>36478.654999999999</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>1919.3857965451054</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="2"/>
+        <v>521</v>
+      </c>
+      <c r="J22" s="13">
+        <v>28.655000000000001</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>36.478654999999996</v>
+      </c>
+      <c r="L22" s="10">
+        <v>20</v>
+      </c>
+      <c r="M22" s="17">
+        <v>32943</v>
+      </c>
+      <c r="N22" s="17">
+        <v>150</v>
+      </c>
+      <c r="O22" s="16">
+        <v>2952151</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>33649</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="D23" s="12">
+        <v>32428.5</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="5"/>
+        <v>35128.5</v>
+      </c>
+      <c r="F23" s="12">
+        <v>1350</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="J23" s="13">
+        <v>28.5</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>35.128500000000003</v>
+      </c>
+      <c r="L23" s="10">
+        <v>21</v>
+      </c>
+      <c r="M23" s="17">
+        <v>32216</v>
+      </c>
+      <c r="N23" s="17">
+        <v>144</v>
+      </c>
+      <c r="O23" s="16">
+        <v>2858168</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>33649</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104259CF-4DA1-435F-859F-CDADF407460C}">
   <dimension ref="A1:AN81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
@@ -12269,11 +16723,12 @@
       <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="P1" s="1"/>
       <c r="Q1" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="AN1" t="s">
         <v>18</v>
@@ -12330,11 +16785,14 @@
       <c r="O2" s="16">
         <v>13719156</v>
       </c>
-      <c r="P2" s="4">
-        <v>120821</v>
-      </c>
+      <c r="P2" s="4"/>
       <c r="Q2">
-        <v>532</v>
+        <f>B2*2</f>
+        <v>320</v>
+      </c>
+      <c r="R2">
+        <f>C2/2</f>
+        <v>3125</v>
       </c>
       <c r="AN2" s="5">
         <v>101665</v>
@@ -12392,6 +16850,14 @@
       <c r="O3" s="16">
         <v>11087632</v>
       </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q23" si="4">B3*2</f>
+        <v>400</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R23" si="5">C3/2</f>
+        <v>2500</v>
+      </c>
       <c r="AN3" s="5">
         <v>76576</v>
       </c>
@@ -12404,14 +16870,14 @@
         <v>240</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C23" si="4">1/B4*1000000</f>
+        <f t="shared" ref="C4:C23" si="6">1/B4*1000000</f>
         <v>4166.666666666667</v>
       </c>
       <c r="D4" s="12">
         <v>249078.258</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E23" si="5">G4*F4+J4</f>
+        <f t="shared" ref="E4:E23" si="7">G4*F4+J4</f>
         <v>253899.47700000001</v>
       </c>
       <c r="F4" s="12">
@@ -12447,6 +16913,14 @@
       </c>
       <c r="O4" s="16">
         <v>9400042</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="5"/>
+        <v>2083.3333333333335</v>
       </c>
       <c r="AN4" s="5">
         <v>61612</v>
@@ -12460,14 +16934,14 @@
         <v>280</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3571.4285714285711</v>
       </c>
       <c r="D5" s="12">
         <v>213519.872</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>218810.00399999996</v>
       </c>
       <c r="F5" s="12">
@@ -12503,6 +16977,14 @@
       </c>
       <c r="O5" s="16">
         <v>8181341</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>560</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="5"/>
+        <v>1785.7142857142856</v>
       </c>
       <c r="AN5" s="5">
         <v>60352</v>
@@ -12516,14 +16998,14 @@
         <v>320</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3125</v>
       </c>
       <c r="D6" s="12">
         <v>186806.25</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>191771.875</v>
       </c>
       <c r="F6" s="12">
@@ -12559,6 +17041,14 @@
       </c>
       <c r="O6" s="16">
         <v>7242537</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>640</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="5"/>
+        <v>1562.5</v>
       </c>
       <c r="AN6" s="5">
         <v>52500</v>
@@ -12572,14 +17062,14 @@
         <v>360</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2777.7777777777778</v>
       </c>
       <c r="D7" s="12">
         <v>166068.84</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>170183.05800000002</v>
       </c>
       <c r="F7" s="12">
@@ -12615,6 +17105,14 @@
       </c>
       <c r="O7" s="16">
         <v>6489647</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>1388.8888888888889</v>
       </c>
       <c r="AN7" s="5">
         <v>47234</v>
@@ -12628,14 +17126,14 @@
         <v>400</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2500</v>
       </c>
       <c r="D8" s="12">
         <v>149455</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>153967.5</v>
       </c>
       <c r="F8" s="12">
@@ -12671,6 +17169,14 @@
       </c>
       <c r="O8" s="16">
         <v>5926827</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="5"/>
+        <v>1250</v>
       </c>
       <c r="AN8" s="5">
         <v>47750</v>
@@ -12684,14 +17190,14 @@
         <v>440</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2272.7272727272725</v>
       </c>
       <c r="D9" s="12">
         <v>135889.03200000001</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>140482.76499999998</v>
       </c>
       <c r="F9" s="12">
@@ -12727,6 +17233,14 @@
       </c>
       <c r="O9" s="16">
         <v>5460964</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>880</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>1136.3636363636363</v>
       </c>
       <c r="AN9" s="5">
         <v>43048</v>
@@ -12740,14 +17254,14 @@
         <v>480</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2083.3333333333335</v>
       </c>
       <c r="D10" s="12">
         <v>124594.024</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>129706.07600000002</v>
       </c>
       <c r="F10" s="12">
@@ -12783,6 +17297,14 @@
       </c>
       <c r="O10" s="16">
         <v>5089136</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>960</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="5"/>
+        <v>1041.6666666666667</v>
       </c>
       <c r="AN10" s="5">
         <v>41088</v>
@@ -12796,14 +17318,14 @@
         <v>520</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1923.0769230769231</v>
       </c>
       <c r="D11" s="12">
         <v>115032.11199999999</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>118920.51599999999</v>
       </c>
       <c r="F11" s="12">
@@ -12839,6 +17361,14 @@
       </c>
       <c r="O11" s="16">
         <v>4709100</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>1040</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>961.53846153846155</v>
       </c>
       <c r="AN11" s="5">
         <v>39557</v>
@@ -12852,14 +17382,14 @@
         <v>560</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1785.7142857142856</v>
       </c>
       <c r="D12" s="12">
         <v>106784.94</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>110780.22199999998</v>
       </c>
       <c r="F12" s="12">
@@ -12895,6 +17425,14 @@
       </c>
       <c r="O12" s="16">
         <v>4429203</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>1120</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="5"/>
+        <v>892.85714285714278</v>
       </c>
       <c r="AN12" s="5">
         <v>39564</v>
@@ -12908,14 +17446,14 @@
         <v>600</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1666.6666666666667</v>
       </c>
       <c r="D13" s="12">
         <v>99673.263999999996</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>102682.19900000001</v>
       </c>
       <c r="F13" s="12">
@@ -12951,6 +17489,14 @@
       </c>
       <c r="O13" s="16">
         <v>4143150</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>833.33333333333337</v>
       </c>
       <c r="AN13" s="5">
         <v>38043</v>
@@ -12964,14 +17510,14 @@
         <v>640</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1562.5</v>
       </c>
       <c r="D14" s="12">
         <v>93458.021999999997</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>97292.061000000002</v>
       </c>
       <c r="F14" s="12">
@@ -13007,6 +17553,14 @@
       </c>
       <c r="O14" s="16">
         <v>3961340</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>1280</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>781.25</v>
       </c>
       <c r="AN14" s="5">
         <v>36477</v>
@@ -13020,14 +17574,14 @@
         <v>680</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1470.5882352941176</v>
       </c>
       <c r="D15" s="12">
         <v>87959.915999999997</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>91886.014999999999</v>
       </c>
       <c r="F15" s="12">
@@ -13063,6 +17617,14 @@
       </c>
       <c r="O15" s="16">
         <v>3775426</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>1360</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>735.29411764705878</v>
       </c>
       <c r="AN15" s="5">
         <v>35712</v>
@@ -13076,14 +17638,14 @@
         <v>720</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1388.8888888888889</v>
       </c>
       <c r="D16" s="12">
         <v>83059.422000000006</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>86466.638999999996</v>
       </c>
       <c r="F16" s="12">
@@ -13119,6 +17681,14 @@
       </c>
       <c r="O16" s="16">
         <v>3585408</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>1440</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="5"/>
+        <v>694.44444444444446</v>
       </c>
       <c r="AN16" s="5">
         <v>34946</v>
@@ -13132,14 +17702,14 @@
         <v>760</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1315.7894736842104</v>
       </c>
       <c r="D17" s="12">
         <v>78696.800000000003</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>83772.611999999994</v>
       </c>
       <c r="F17" s="12">
@@ -13175,6 +17745,14 @@
       </c>
       <c r="O17" s="16">
         <v>3504763</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>1520</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="5"/>
+        <v>657.8947368421052</v>
       </c>
       <c r="AN17" s="5">
         <v>34554</v>
@@ -13188,14 +17766,14 @@
         <v>800</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1250</v>
       </c>
       <c r="D18" s="12">
         <v>74752.5</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>78358.75</v>
       </c>
       <c r="F18" s="12">
@@ -13231,6 +17809,14 @@
       </c>
       <c r="O18" s="16">
         <v>3307563</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="5"/>
+        <v>625</v>
       </c>
       <c r="AN18" s="5">
         <v>35743</v>
@@ -13244,14 +17830,14 @@
         <v>840</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1190.4761904761906</v>
       </c>
       <c r="D19" s="12">
         <v>71226.563999999998</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>75691.622999999992</v>
       </c>
       <c r="F19" s="12">
@@ -13287,6 +17873,14 @@
       </c>
       <c r="O19" s="16">
         <v>3221788</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>1680</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="5"/>
+        <v>595.2380952380953</v>
       </c>
       <c r="AN19" s="5">
         <v>35177</v>
@@ -13300,14 +17894,14 @@
         <v>880</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1136.3636363636363</v>
       </c>
       <c r="D20" s="12">
         <v>67999.422000000006</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>72998.811000000002</v>
       </c>
       <c r="F20" s="12">
@@ -13344,7 +17938,14 @@
       <c r="O20" s="16">
         <v>3133961</v>
       </c>
-      <c r="Q20" s="4"/>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>1760</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="5"/>
+        <v>568.18181818181813</v>
+      </c>
       <c r="AN20" s="5">
         <v>33993</v>
       </c>
@@ -13357,14 +17958,14 @@
         <v>920</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1086.9565217391305</v>
       </c>
       <c r="D21" s="12">
         <v>65011.296000000002</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>70260.419000000009</v>
       </c>
       <c r="F21" s="12">
@@ -13379,14 +17980,14 @@
         <v>919.96320147194115</v>
       </c>
       <c r="I21" s="10">
-        <f t="shared" ref="I21:I26" si="6">ROUNDUP(C21,0)</f>
+        <f t="shared" ref="I21:I26" si="8">ROUNDUP(C21,0)</f>
         <v>1087</v>
       </c>
       <c r="J21" s="13">
         <v>57.610999999999997</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K21:K72" si="7">E21/1000</f>
+        <f t="shared" ref="K21:K72" si="9">E21/1000</f>
         <v>70.260419000000013</v>
       </c>
       <c r="L21" s="10">
@@ -13400,6 +18001,14 @@
       </c>
       <c r="O21" s="16">
         <v>3044082</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>1840</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="5"/>
+        <v>543.47826086956525</v>
       </c>
       <c r="AN21" s="5">
         <v>33389</v>
@@ -13413,14 +18022,14 @@
         <v>960</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1041.6666666666667</v>
       </c>
       <c r="D22" s="12">
         <v>62322.02</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>67578.91</v>
       </c>
       <c r="F22" s="12">
@@ -13431,18 +18040,18 @@
         <v>25</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H27" si="8">1/I22*1000000</f>
+        <f t="shared" ref="H22:H27" si="10">1/I22*1000000</f>
         <v>959.69289827255272</v>
       </c>
       <c r="I22" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1042</v>
       </c>
       <c r="J22" s="13">
         <v>57.31</v>
       </c>
       <c r="K22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>67.578910000000008</v>
       </c>
       <c r="L22" s="10">
@@ -13456,6 +18065,14 @@
       </c>
       <c r="O22" s="16">
         <v>2952151</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>1920</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="5"/>
+        <v>520.83333333333337</v>
       </c>
       <c r="AN22" s="5">
         <v>33649</v>
@@ -13469,14 +18086,14 @@
         <v>1000</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="D23" s="12">
         <v>59812</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>64857</v>
       </c>
       <c r="F23" s="12">
@@ -13487,18 +18104,18 @@
         <v>24</v>
       </c>
       <c r="H23">
+        <f t="shared" si="10"/>
+        <v>1000</v>
+      </c>
+      <c r="I23" s="10">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="I23" s="10">
-        <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
       <c r="J23" s="13">
         <v>57</v>
       </c>
       <c r="K23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>64.856999999999999</v>
       </c>
       <c r="L23" s="10">
@@ -13512,6 +18129,14 @@
       </c>
       <c r="O23" s="16">
         <v>2858168</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="5"/>
+        <v>500</v>
       </c>
       <c r="AN23" s="5">
         <v>33649</v>
@@ -13525,7 +18150,7 @@
         <v>1040</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ref="C24:C64" si="9">1/B24*1000000</f>
+        <f t="shared" ref="C24:C64" si="11">1/B24*1000000</f>
         <v>961.53846153846155</v>
       </c>
       <c r="D24" s="23"/>
@@ -13536,16 +18161,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H24">
+        <f t="shared" si="10"/>
+        <v>1039.5010395010395</v>
+      </c>
+      <c r="I24" s="10">
         <f t="shared" si="8"/>
-        <v>1039.5010395010395</v>
-      </c>
-      <c r="I24" s="10">
-        <f t="shared" si="6"/>
         <v>962</v>
       </c>
       <c r="J24" s="24"/>
       <c r="K24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L24" s="10">
@@ -13563,7 +18188,7 @@
         <v>1080</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>925.92592592592598</v>
       </c>
       <c r="D25" s="23"/>
@@ -13574,16 +18199,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H25">
+        <f t="shared" si="10"/>
+        <v>1079.9136069114472</v>
+      </c>
+      <c r="I25" s="10">
         <f t="shared" si="8"/>
-        <v>1079.9136069114472</v>
-      </c>
-      <c r="I25" s="10">
-        <f t="shared" si="6"/>
         <v>926</v>
       </c>
       <c r="J25" s="24"/>
       <c r="K25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L25" s="10">
@@ -13601,7 +18226,7 @@
         <v>1120</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>892.85714285714278</v>
       </c>
       <c r="D26" s="23"/>
@@ -13612,16 +18237,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H26">
+        <f t="shared" si="10"/>
+        <v>1119.8208286674133</v>
+      </c>
+      <c r="I26" s="10">
         <f t="shared" si="8"/>
-        <v>1119.8208286674133</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="6"/>
         <v>893</v>
       </c>
       <c r="J26" s="24"/>
       <c r="K26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L26" s="10">
@@ -13639,7 +18264,7 @@
         <v>1160</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>862.06896551724139</v>
       </c>
       <c r="D27" s="23"/>
@@ -13650,16 +18275,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1158.7485515643104</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" ref="I27:I67" si="10">ROUNDUP(C27,0)</f>
+        <f t="shared" ref="I27:I67" si="12">ROUNDUP(C27,0)</f>
         <v>863</v>
       </c>
       <c r="J27" s="24"/>
       <c r="K27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L27" s="10">
@@ -13677,7 +18302,7 @@
         <v>1200</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>833.33333333333337</v>
       </c>
       <c r="D28" s="23"/>
@@ -13688,16 +18313,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28:H68" si="11">1/I28*1000000</f>
+        <f t="shared" ref="H28:H68" si="13">1/I28*1000000</f>
         <v>1199.0407673860911</v>
       </c>
       <c r="I28" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>834</v>
       </c>
       <c r="J28" s="24"/>
       <c r="K28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L28" s="10">
@@ -13715,7 +18340,7 @@
         <v>1240</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>806.45161290322585</v>
       </c>
       <c r="D29" s="23"/>
@@ -13726,16 +18351,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1239.1573729863692</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>807</v>
       </c>
       <c r="J29" s="24"/>
       <c r="K29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L29" s="10">
@@ -13753,7 +18378,7 @@
         <v>1280</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>781.25</v>
       </c>
       <c r="D30" s="23"/>
@@ -13764,16 +18389,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1278.7723785166243</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>782</v>
       </c>
       <c r="J30" s="24"/>
       <c r="K30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L30" s="10">
@@ -13791,7 +18416,7 @@
         <v>1320</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>757.57575757575762</v>
       </c>
       <c r="D31" s="23"/>
@@ -13802,16 +18427,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1319.2612137203166</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>758</v>
       </c>
       <c r="J31" s="24"/>
       <c r="K31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L31" s="10">
@@ -13829,7 +18454,7 @@
         <v>1360</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>735.29411764705878</v>
       </c>
       <c r="D32" s="23"/>
@@ -13840,16 +18465,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1358.695652173913</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>736</v>
       </c>
       <c r="J32" s="24"/>
       <c r="K32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L32" s="10">
@@ -13867,7 +18492,7 @@
         <v>1400</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>714.28571428571433</v>
       </c>
       <c r="D33" s="23"/>
@@ -13878,16 +18503,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1398.6013986013986</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>715</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L33" s="10">
@@ -13905,7 +18530,7 @@
         <v>1440</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>694.44444444444446</v>
       </c>
       <c r="D34" s="23"/>
@@ -13916,16 +18541,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1438.8489208633093</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>695</v>
       </c>
       <c r="J34" s="24"/>
       <c r="K34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L34" s="10">
@@ -13943,7 +18568,7 @@
         <v>1480</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>675.67567567567573</v>
       </c>
       <c r="D35" s="23"/>
@@ -13954,16 +18579,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1479.2899408284022</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>676</v>
       </c>
       <c r="J35" s="24"/>
       <c r="K35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L35" s="10">
@@ -13981,7 +18606,7 @@
         <v>1520</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>657.8947368421052</v>
       </c>
       <c r="D36" s="23"/>
@@ -13992,16 +18617,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1519.7568389057751</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>658</v>
       </c>
       <c r="J36" s="24"/>
       <c r="K36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L36" s="10">
@@ -14019,7 +18644,7 @@
         <v>1560</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>641.02564102564099</v>
       </c>
       <c r="D37" s="23"/>
@@ -14030,16 +18655,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1557.632398753894</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>642</v>
       </c>
       <c r="J37" s="24"/>
       <c r="K37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L37" s="10">
@@ -14057,7 +18682,7 @@
         <v>1600</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>625</v>
       </c>
       <c r="D38" s="23"/>
@@ -14068,16 +18693,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1600</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>625</v>
       </c>
       <c r="J38" s="24"/>
       <c r="K38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L38" s="10">
@@ -14095,7 +18720,7 @@
         <v>1640</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>609.7560975609756</v>
       </c>
       <c r="D39" s="23"/>
@@ -14106,16 +18731,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1639.344262295082</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>610</v>
       </c>
       <c r="J39" s="24"/>
       <c r="K39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L39" s="10">
@@ -14133,7 +18758,7 @@
         <v>1680</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>595.2380952380953</v>
       </c>
       <c r="D40" s="23"/>
@@ -14144,16 +18769,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1677.8523489932886</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>596</v>
       </c>
       <c r="J40" s="24"/>
       <c r="K40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L40" s="10">
@@ -14171,7 +18796,7 @@
         <v>1720</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>581.39534883720933</v>
       </c>
       <c r="D41" s="23"/>
@@ -14182,16 +18807,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1718.2130584192439</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>582</v>
       </c>
       <c r="J41" s="24"/>
       <c r="K41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L41" s="10">
@@ -14209,7 +18834,7 @@
         <v>1760</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>568.18181818181813</v>
       </c>
       <c r="D42" s="23"/>
@@ -14220,16 +18845,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1757.4692442882249</v>
       </c>
       <c r="I42" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>569</v>
       </c>
       <c r="J42" s="24"/>
       <c r="K42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L42" s="10">
@@ -14247,7 +18872,7 @@
         <v>1800</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>555.55555555555554</v>
       </c>
       <c r="D43" s="23"/>
@@ -14258,16 +18883,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1798.5611510791368</v>
       </c>
       <c r="I43" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>556</v>
       </c>
       <c r="J43" s="24"/>
       <c r="K43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L43" s="10">
@@ -14285,7 +18910,7 @@
         <v>1840</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>543.47826086956525</v>
       </c>
       <c r="D44" s="23"/>
@@ -14296,16 +18921,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1838.2352941176471</v>
       </c>
       <c r="I44" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>544</v>
       </c>
       <c r="J44" s="24"/>
       <c r="K44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L44" s="10">
@@ -14323,7 +18948,7 @@
         <v>1880</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>531.91489361702133</v>
       </c>
       <c r="D45" s="23"/>
@@ -14334,16 +18959,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1879.6992481203006</v>
       </c>
       <c r="I45" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>532</v>
       </c>
       <c r="J45" s="24"/>
       <c r="K45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L45" s="10">
@@ -14361,7 +18986,7 @@
         <v>1920</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>520.83333333333337</v>
       </c>
       <c r="D46" s="23"/>
@@ -14372,16 +18997,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1919.3857965451054</v>
       </c>
       <c r="I46" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>521</v>
       </c>
       <c r="J46" s="24"/>
       <c r="K46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L46" s="10">
@@ -14399,7 +19024,7 @@
         <v>1960</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>510.20408163265313</v>
       </c>
       <c r="D47" s="23"/>
@@ -14410,16 +19035,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1956.9471624266143</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>511</v>
       </c>
       <c r="J47" s="24"/>
       <c r="K47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L47" s="10">
@@ -14437,7 +19062,7 @@
         <v>2000</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>500</v>
       </c>
       <c r="D48" s="23"/>
@@ -14448,16 +19073,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2000</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>500</v>
       </c>
       <c r="J48" s="24"/>
       <c r="K48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L48" s="10">
@@ -14475,7 +19100,7 @@
         <v>2040</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>490.19607843137254</v>
       </c>
       <c r="D49" s="23"/>
@@ -14486,16 +19111,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2036.6598778004072</v>
       </c>
       <c r="I49" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>491</v>
       </c>
       <c r="J49" s="24"/>
       <c r="K49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L49" s="10">
@@ -14513,7 +19138,7 @@
         <v>2080</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>480.76923076923077</v>
       </c>
       <c r="D50" s="23"/>
@@ -14524,16 +19149,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2079.002079002079</v>
       </c>
       <c r="I50" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>481</v>
       </c>
       <c r="J50" s="24"/>
       <c r="K50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L50" s="10">
@@ -14551,7 +19176,7 @@
         <v>2120</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>471.69811320754718</v>
       </c>
       <c r="D51" s="23"/>
@@ -14562,16 +19187,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2118.6440677966102</v>
       </c>
       <c r="I51" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>472</v>
       </c>
       <c r="J51" s="24"/>
       <c r="K51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L51" s="10">
@@ -14589,7 +19214,7 @@
         <v>2160</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>462.96296296296299</v>
       </c>
       <c r="D52" s="23"/>
@@ -14600,16 +19225,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2159.8272138228945</v>
       </c>
       <c r="I52" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>463</v>
       </c>
       <c r="J52" s="24"/>
       <c r="K52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L52" s="10">
@@ -14627,7 +19252,7 @@
         <v>2200</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>454.54545454545456</v>
       </c>
       <c r="D53" s="23"/>
@@ -14638,16 +19263,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2197.802197802198</v>
       </c>
       <c r="I53" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>455</v>
       </c>
       <c r="J53" s="24"/>
       <c r="K53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L53" s="10">
@@ -14665,7 +19290,7 @@
         <v>2240</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>446.42857142857139</v>
       </c>
       <c r="D54" s="23"/>
@@ -14676,16 +19301,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2237.1364653243845</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>447</v>
       </c>
       <c r="J54" s="24"/>
       <c r="K54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L54" s="10">
@@ -14703,7 +19328,7 @@
         <v>2280</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>438.59649122807019</v>
       </c>
       <c r="D55" s="23"/>
@@ -14714,16 +19339,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2277.9043280182232</v>
       </c>
       <c r="I55" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>439</v>
       </c>
       <c r="J55" s="24"/>
       <c r="K55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L55" s="10">
@@ -14741,7 +19366,7 @@
         <v>2320</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>431.0344827586207</v>
       </c>
       <c r="D56" s="23"/>
@@ -14752,16 +19377,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2314.8148148148148</v>
       </c>
       <c r="I56" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>432</v>
       </c>
       <c r="J56" s="24"/>
       <c r="K56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L56" s="10">
@@ -14779,7 +19404,7 @@
         <v>2360</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>423.72881355932202</v>
       </c>
       <c r="D57" s="23"/>
@@ -14790,16 +19415,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2358.4905660377358</v>
       </c>
       <c r="I57" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>424</v>
       </c>
       <c r="J57" s="24"/>
       <c r="K57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L57" s="10">
@@ -14817,7 +19442,7 @@
         <v>2400</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>416.66666666666669</v>
       </c>
       <c r="D58" s="23"/>
@@ -14828,16 +19453,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2398.0815347721823</v>
       </c>
       <c r="I58" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>417</v>
       </c>
       <c r="J58" s="24"/>
       <c r="K58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L58" s="10">
@@ -14855,7 +19480,7 @@
         <v>2440</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>409.8360655737705</v>
       </c>
       <c r="D59" s="23"/>
@@ -14866,16 +19491,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2439.0243902439024</v>
       </c>
       <c r="I59" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>410</v>
       </c>
       <c r="J59" s="24"/>
       <c r="K59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L59" s="10">
@@ -14893,7 +19518,7 @@
         <v>2480</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>403.22580645161293</v>
       </c>
       <c r="D60" s="23"/>
@@ -14904,16 +19529,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2475.2475247524753</v>
       </c>
       <c r="I60" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>404</v>
       </c>
       <c r="J60" s="24"/>
       <c r="K60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L60" s="10">
@@ -14931,7 +19556,7 @@
         <v>2520</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>396.82539682539681</v>
       </c>
       <c r="D61" s="23"/>
@@ -14942,16 +19567,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2518.8916876574308</v>
       </c>
       <c r="I61" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>397</v>
       </c>
       <c r="J61" s="24"/>
       <c r="K61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L61" s="10">
@@ -14969,7 +19594,7 @@
         <v>2560</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>390.625</v>
       </c>
       <c r="D62" s="23"/>
@@ -14980,16 +19605,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2557.5447570332485</v>
       </c>
       <c r="I62" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>391</v>
       </c>
       <c r="J62" s="24"/>
       <c r="K62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L62" s="10">
@@ -15007,7 +19632,7 @@
         <v>2600</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>384.61538461538464</v>
       </c>
       <c r="D63" s="23"/>
@@ -15018,16 +19643,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2597.4025974025976</v>
       </c>
       <c r="I63" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>385</v>
       </c>
       <c r="J63" s="24"/>
       <c r="K63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L63" s="10">
@@ -15045,7 +19670,7 @@
         <v>2640</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>378.78787878787881</v>
       </c>
       <c r="D64" s="23"/>
@@ -15056,16 +19681,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2638.5224274406332</v>
       </c>
       <c r="I64" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>379</v>
       </c>
       <c r="J64" s="24"/>
       <c r="K64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L64" s="10">
@@ -15083,7 +19708,7 @@
         <v>2680</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" ref="C65:C81" si="12">1/B65*1000000</f>
+        <f t="shared" ref="C65:C81" si="14">1/B65*1000000</f>
         <v>373.13432835820896</v>
       </c>
       <c r="D65" s="23"/>
@@ -15094,16 +19719,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2673.79679144385</v>
       </c>
       <c r="I65" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>374</v>
       </c>
       <c r="J65" s="24"/>
       <c r="K65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L65" s="10">
@@ -15121,7 +19746,7 @@
         <v>2720</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>367.64705882352939</v>
       </c>
       <c r="D66" s="23"/>
@@ -15132,16 +19757,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2717.391304347826</v>
       </c>
       <c r="I66" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>368</v>
       </c>
       <c r="J66" s="24"/>
       <c r="K66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L66" s="10">
@@ -15159,27 +19784,27 @@
         <v>2760</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>362.31884057971013</v>
       </c>
       <c r="D67" s="23"/>
       <c r="E67" s="1"/>
       <c r="F67" s="23"/>
       <c r="G67" s="2" t="e">
-        <f t="shared" ref="G67:G71" si="13">ROUNDUP(D67/F67,0)+1</f>
+        <f t="shared" ref="G67:G71" si="15">ROUNDUP(D67/F67,0)+1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2754.8209366391184</v>
       </c>
       <c r="I67" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>363</v>
       </c>
       <c r="J67" s="24"/>
       <c r="K67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L67" s="10">
@@ -15197,27 +19822,27 @@
         <v>2800</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>357.14285714285717</v>
       </c>
       <c r="D68" s="23"/>
       <c r="E68" s="1"/>
       <c r="F68" s="23"/>
       <c r="G68" s="2" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H68">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="11"/>
         <v>2793.2960893854752</v>
       </c>
       <c r="I68" s="10">
-        <f t="shared" ref="I68:I81" si="14">ROUNDUP(C68,0)</f>
+        <f t="shared" ref="I68:I81" si="16">ROUNDUP(C68,0)</f>
         <v>358</v>
       </c>
       <c r="J68" s="24"/>
       <c r="K68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L68" s="10">
@@ -15235,27 +19860,27 @@
         <v>2840</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>352.11267605633805</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="1"/>
       <c r="F69" s="23"/>
       <c r="G69" s="2" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H69">
-        <f t="shared" ref="H69:H73" si="15">1/I69*1000000</f>
+        <f t="shared" ref="H69:H73" si="17">1/I69*1000000</f>
         <v>2832.8611898016998</v>
       </c>
       <c r="I69" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>353</v>
       </c>
       <c r="J69" s="24"/>
       <c r="K69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L69" s="10">
@@ -15273,27 +19898,27 @@
         <v>2880</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>347.22222222222223</v>
       </c>
       <c r="D70" s="23"/>
       <c r="E70" s="1"/>
       <c r="F70" s="23"/>
       <c r="G70" s="2" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2873.5632183908046</v>
       </c>
       <c r="I70" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>348</v>
       </c>
       <c r="J70" s="24"/>
       <c r="K70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L70" s="10">
@@ -15311,27 +19936,27 @@
         <v>2920</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>342.46575342465752</v>
       </c>
       <c r="D71" s="23"/>
       <c r="E71" s="1"/>
       <c r="F71" s="23"/>
       <c r="G71" s="2" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2915.4518950437318</v>
       </c>
       <c r="I71" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>343</v>
       </c>
       <c r="J71" s="24"/>
       <c r="K71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L71" s="10">
@@ -15349,7 +19974,7 @@
         <v>2960</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>337.83783783783787</v>
       </c>
       <c r="D72" s="23"/>
@@ -15360,16 +19985,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2958.5798816568044</v>
       </c>
       <c r="I72" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>338</v>
       </c>
       <c r="J72" s="24"/>
       <c r="K72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L72" s="10">
@@ -15387,7 +20012,7 @@
         <v>3000</v>
       </c>
       <c r="C73" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>333.33333333333331</v>
       </c>
       <c r="D73" s="26">
@@ -15405,11 +20030,11 @@
         <v>9</v>
       </c>
       <c r="H73" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2994.0119760479042</v>
       </c>
       <c r="I73" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>334</v>
       </c>
       <c r="J73" s="30">
@@ -15436,11 +20061,11 @@
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="25" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I74" s="29" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J74" s="11"/>
@@ -15456,11 +20081,11 @@
         <v>18000</v>
       </c>
       <c r="C75" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>55.555555555555557</v>
       </c>
       <c r="I75" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>56</v>
       </c>
       <c r="J75" s="11"/>
@@ -15472,11 +20097,11 @@
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="25" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I76" s="29" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J76" s="11"/>
@@ -15488,11 +20113,11 @@
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="25" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I77" s="29" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J77" s="11"/>
@@ -15504,11 +20129,11 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="25" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I78" s="29" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J78" s="5"/>
@@ -15518,11 +20143,11 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C79" s="25" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I79" s="29" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J79" s="5"/>
@@ -15532,21 +20157,21 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C80" s="25" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I80" s="29" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C81" s="25" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I81" s="29" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15557,7 +20182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786AA61C-20CB-4AC1-8D72-07DC490D5A64}">
   <dimension ref="E1:N22"/>
   <sheetViews>
@@ -15569,30 +20194,30 @@
   <sheetData>
     <row r="1" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E1" s="59" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F1" s="58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G1" s="58"/>
       <c r="H1" s="58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I1" s="58"/>
     </row>
     <row r="2" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E2" s="59"/>
       <c r="F2" s="46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2" s="46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="5:14" x14ac:dyDescent="0.25">
@@ -15821,7 +20446,7 @@
         <v>126</v>
       </c>
       <c r="J15" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K15" s="52"/>
       <c r="L15" s="47"/>
@@ -15952,7 +20577,7 @@
     </row>
     <row r="22" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E22" s="57" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
@@ -15973,12 +20598,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BA3D75-590D-4E01-9070-2E13EF8BFE53}">
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16789,7 +21414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A778130-3D55-4681-BC9B-C0CFD0D72F17}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -16805,7 +21430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E62CD7-0F75-45A2-BA1A-AFAB0AA7A42B}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Arquivos/Excel/resultados_multicore.xlsx
+++ b/Arquivos/Excel/resultados_multicore.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Desktop\GitDesk\Arquivos\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F80262-8BE5-43BE-A297-8DD53B964350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A0C58B-22AD-4C85-BB01-82DFB355D66F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="483" xr2:uid="{7C13D048-D369-4CF7-941B-2AB5863FD600}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="483" activeTab="1" xr2:uid="{7C13D048-D369-4CF7-941B-2AB5863FD600}"/>
   </bookViews>
   <sheets>
     <sheet name="SSF" sheetId="7" r:id="rId1"/>
+    <sheet name="RN" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>clocks</t>
   </si>
@@ -83,12 +84,18 @@
   <si>
     <t>MLT -1 (in)</t>
   </si>
+  <si>
+    <t>Tempo de Atraso [ns]</t>
+  </si>
+  <si>
+    <t>1 pulso</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +149,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -163,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,6 +219,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5905,8 +5927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7955FCB8-867E-43F2-8076-D8AB814E01C6}">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7299,4 +7321,866 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B442ED4B-69CD-429B-93EE-E4EE92BF073B}">
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>320</v>
+      </c>
+      <c r="C2" s="1">
+        <f>1/B2*1000000</f>
+        <v>3125</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15" t="e">
+        <f>ROUNDUP(E2/D2,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I2">
+        <f>1/J2*1000000</f>
+        <v>320</v>
+      </c>
+      <c r="J2" s="12">
+        <f>ROUNDUP(C2,0)</f>
+        <v>3125</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>400</v>
+      </c>
+      <c r="C3" s="1">
+        <f>1/B3*1000000</f>
+        <v>2500</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15" t="e">
+        <f t="shared" ref="H3:H23" si="0">ROUNDUP(E3/D3,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I23" si="1">1/J3*1000000</f>
+        <v>400</v>
+      </c>
+      <c r="J3" s="12">
+        <f>ROUNDUP(C3,0)</f>
+        <v>2500</v>
+      </c>
+      <c r="K3" s="12">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>480</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C23" si="2">1/B4*1000000</f>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>479.84644913627636</v>
+      </c>
+      <c r="J4" s="12">
+        <f>ROUNDUP(C4,0)</f>
+        <v>2084</v>
+      </c>
+      <c r="K4" s="12">
+        <v>2</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>560</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="2"/>
+        <v>1785.7142857142856</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>559.91041433370663</v>
+      </c>
+      <c r="J5" s="12">
+        <f>ROUNDUP(C5,0)</f>
+        <v>1786</v>
+      </c>
+      <c r="K5" s="12">
+        <v>3</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>640</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="2"/>
+        <v>1562.5</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>639.79526551503511</v>
+      </c>
+      <c r="J6" s="12">
+        <f>ROUNDUP(C6,0)</f>
+        <v>1563</v>
+      </c>
+      <c r="K6" s="12">
+        <v>4</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>720</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="2"/>
+        <v>1388.8888888888889</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>719.94240460763137</v>
+      </c>
+      <c r="J7" s="12">
+        <f>ROUNDUP(C7,0)</f>
+        <v>1389</v>
+      </c>
+      <c r="K7" s="12">
+        <v>5</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>800</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+      <c r="D8" s="18">
+        <v>25</v>
+      </c>
+      <c r="E8" s="17">
+        <v>925</v>
+      </c>
+      <c r="F8" s="1">
+        <v>926.25</v>
+      </c>
+      <c r="G8" s="14">
+        <v>31.25</v>
+      </c>
+      <c r="H8" s="15">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="J8" s="12">
+        <f>ROUNDUP(C8,0)</f>
+        <v>1250</v>
+      </c>
+      <c r="K8" s="12">
+        <v>6</v>
+      </c>
+      <c r="L8" s="7">
+        <v>25980</v>
+      </c>
+      <c r="M8" s="8">
+        <v>222</v>
+      </c>
+      <c r="N8" s="10">
+        <v>38074016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>880</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="2"/>
+        <v>1136.3636363636363</v>
+      </c>
+      <c r="D9" s="18">
+        <v>25.013999999999999</v>
+      </c>
+      <c r="E9" s="17">
+        <v>850.476</v>
+      </c>
+      <c r="F9" s="1">
+        <v>851.61300000000006</v>
+      </c>
+      <c r="G9" s="14">
+        <v>30.699000000000002</v>
+      </c>
+      <c r="H9" s="15">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>879.50747581354449</v>
+      </c>
+      <c r="J9" s="12">
+        <f>ROUNDUP(C9,0)</f>
+        <v>1137</v>
+      </c>
+      <c r="K9" s="12">
+        <v>7</v>
+      </c>
+      <c r="L9" s="7">
+        <v>21102</v>
+      </c>
+      <c r="M9" s="8">
+        <v>204</v>
+      </c>
+      <c r="N9" s="10">
+        <v>35037580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>960</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="2"/>
+        <v>1041.6666666666667</v>
+      </c>
+      <c r="D10" s="18">
+        <v>25.007999999999999</v>
+      </c>
+      <c r="E10" s="17">
+        <v>794.00400000000002</v>
+      </c>
+      <c r="F10" s="1">
+        <v>801.298</v>
+      </c>
+      <c r="G10" s="14">
+        <v>30.218</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>959.69289827255272</v>
+      </c>
+      <c r="J10" s="12">
+        <f>ROUNDUP(C10,0)</f>
+        <v>1042</v>
+      </c>
+      <c r="K10" s="12">
+        <v>8</v>
+      </c>
+      <c r="L10" s="7">
+        <v>19803</v>
+      </c>
+      <c r="M10" s="8">
+        <v>192</v>
+      </c>
+      <c r="N10" s="10">
+        <v>32980040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1040</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="2"/>
+        <v>961.53846153846155</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>1039.5010395010395</v>
+      </c>
+      <c r="J11" s="12">
+        <f>ROUNDUP(C11,0)</f>
+        <v>962</v>
+      </c>
+      <c r="K11" s="12">
+        <v>9</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1120</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="2"/>
+        <v>892.85714285714278</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1119.8208286674133</v>
+      </c>
+      <c r="J12" s="12">
+        <f>ROUNDUP(C12,0)</f>
+        <v>893</v>
+      </c>
+      <c r="K12" s="12">
+        <v>10</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="2"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1199.0407673860911</v>
+      </c>
+      <c r="J13" s="12">
+        <f>ROUNDUP(C13,0)</f>
+        <v>834</v>
+      </c>
+      <c r="K13" s="12">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1280</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="2"/>
+        <v>781.25</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>1278.7723785166243</v>
+      </c>
+      <c r="J14" s="12">
+        <f>ROUNDUP(C14,0)</f>
+        <v>782</v>
+      </c>
+      <c r="K14" s="12">
+        <v>12</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1360</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="2"/>
+        <v>735.29411764705878</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1358.695652173913</v>
+      </c>
+      <c r="J15" s="12">
+        <f>ROUNDUP(C15,0)</f>
+        <v>736</v>
+      </c>
+      <c r="K15" s="12">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1440</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="2"/>
+        <v>694.44444444444446</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>1438.8489208633093</v>
+      </c>
+      <c r="J16" s="12">
+        <f>ROUNDUP(C16,0)</f>
+        <v>695</v>
+      </c>
+      <c r="K16" s="12">
+        <v>14</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1520</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="2"/>
+        <v>657.8947368421052</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>1519.7568389057751</v>
+      </c>
+      <c r="J17" s="12">
+        <f>ROUNDUP(C17,0)</f>
+        <v>658</v>
+      </c>
+      <c r="K17" s="12">
+        <v>15</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="2"/>
+        <v>625</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+      <c r="J18" s="12">
+        <f>ROUNDUP(C18,0)</f>
+        <v>625</v>
+      </c>
+      <c r="K18" s="12">
+        <v>16</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1680</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="2"/>
+        <v>595.2380952380953</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>1677.8523489932886</v>
+      </c>
+      <c r="J19" s="12">
+        <f>ROUNDUP(C19,0)</f>
+        <v>596</v>
+      </c>
+      <c r="K19" s="12">
+        <v>17</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1760</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="2"/>
+        <v>568.18181818181813</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>1757.4692442882249</v>
+      </c>
+      <c r="J20" s="12">
+        <f>ROUNDUP(C20,0)</f>
+        <v>569</v>
+      </c>
+      <c r="K20" s="12">
+        <v>18</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1840</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="2"/>
+        <v>543.47826086956525</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>1838.2352941176471</v>
+      </c>
+      <c r="J21" s="12">
+        <f>ROUNDUP(C21,0)</f>
+        <v>544</v>
+      </c>
+      <c r="K21" s="12">
+        <v>19</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1920</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="2"/>
+        <v>520.83333333333337</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>1919.3857965451054</v>
+      </c>
+      <c r="J22" s="12">
+        <f>ROUNDUP(C22,0)</f>
+        <v>521</v>
+      </c>
+      <c r="K22" s="12">
+        <v>20</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="J23" s="12">
+        <f>ROUNDUP(C23,0)</f>
+        <v>500</v>
+      </c>
+      <c r="K23" s="12">
+        <v>21</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Arquivos/Excel/resultados_multicore.xlsx
+++ b/Arquivos/Excel/resultados_multicore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Desktop\GitDesk\Arquivos\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A0C58B-22AD-4C85-BB01-82DFB355D66F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F39A920-10D3-4D9E-9AFF-D99490760AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="483" activeTab="1" xr2:uid="{7C13D048-D369-4CF7-941B-2AB5863FD600}"/>
+    <workbookView xWindow="-24120" yWindow="-1305" windowWidth="24240" windowHeight="13290" tabRatio="483" activeTab="1" xr2:uid="{7C13D048-D369-4CF7-941B-2AB5863FD600}"/>
   </bookViews>
   <sheets>
     <sheet name="SSF" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>clocks</t>
   </si>
@@ -178,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,10 +224,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1082,8 +1079,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29681671114410113"/>
-          <c:y val="0.15596626089394613"/>
+          <c:x val="0.29099428073674199"/>
+          <c:y val="0.17263287401574803"/>
           <c:w val="0.57749209165065529"/>
           <c:h val="6.6766045935652718E-2"/>
         </c:manualLayout>
@@ -3047,6 +3044,2312 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RN!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Processadores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>RN!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RN!$H$2:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D487-45F5-BEE1-E2AD506B5AF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="247"/>
+        <c:axId val="110171312"/>
+        <c:axId val="85434416"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RN!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo de Atraso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>RN!$O$2:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.903125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3525160000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.201978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0769069999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97646699999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92625000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85161300000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80129799999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77633399999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72600900000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70139399999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67642999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65136000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.62619500000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.60075400000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.60062499999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.57633199999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.55136099999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.55107200000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52568899999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.52549999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D487-45F5-BEE1-E2AD506B5AF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="93125648"/>
+        <c:axId val="115242624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="110171312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>frequência</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> operacional [mhz]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85434416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85434416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Número de processadores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110171312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="115242624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>tempo de atraso [microssegundos]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.93279229801715291"/>
+              <c:y val="6.8924974882590709E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93125648"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="93125648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115242624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2388092844233628"/>
+          <c:y val="0.10596620734908137"/>
+          <c:w val="0.62681508804466346"/>
+          <c:h val="0.12093274278215221"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RN!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elementos Lógicos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>RN!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RN!$L$2:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28829</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26980</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25980</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19803</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19617</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20813</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19851</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19039</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18264</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17394</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16526</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15775</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14828</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14986</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88BF-43D8-874D-C99A62E7FE9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="247"/>
+        <c:axId val="110171312"/>
+        <c:axId val="85434416"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RN!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multiplicadores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="4"/>
+              <c:spPr>
+                <a:gradFill rotWithShape="1">
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="110000"/>
+                        <a:satMod val="105000"/>
+                        <a:tint val="67000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="50000">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="105000"/>
+                        <a:satMod val="103000"/>
+                        <a:tint val="73000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="105000"/>
+                        <a:satMod val="109000"/>
+                        <a:tint val="81000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:shade val="95000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="15875" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-88BF-43D8-874D-C99A62E7FE9B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>RN!$M$2:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-88BF-43D8-874D-C99A62E7FE9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="93125648"/>
+        <c:axId val="115242624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="110171312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>frequência</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> operacional [mhz]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85434416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85434416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Número</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de elementos lógicos</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110171312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="115242624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>número</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de multiplicadores</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93125648"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="93125648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115242624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28687072436473443"/>
+          <c:y val="7.0418566100290084E-2"/>
+          <c:w val="0.58742262395978795"/>
+          <c:h val="0.14676601740571901"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>RN!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RN!$N$2:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>78235030</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64844520</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55578660</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49404720</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44255810</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38074016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35037580</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32980040</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31959256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29895930</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28870768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27843978</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26815692</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25786042</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24755160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24765720</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23732792</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22698940</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22707652</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21672150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21680004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02C0-4A01-BB33-F235A02B121F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="110171312"/>
+        <c:axId val="85434416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="110171312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>frequência</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> operacional</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85434416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85434416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Bits</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de memória</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110171312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3207,6 +5510,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
@@ -4777,6 +7200,1575 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5628,6 +9620,254 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>397933</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>24342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>510117</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>24342</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6510D1F9-F1AC-4424-8107-265E18DE3894}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>359834</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>144990</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A97C361-B042-449E-B56B-DB3B90903870}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>5292</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCDF70B-8AF6-4AA5-93A2-EFB4E22C9E33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.29842</cdr:x>
+      <cdr:y>0.87153</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48814</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A6FBAD-9177-4579-933E-23D9AAF26606}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1438275" y="2390774"/>
+          <a:ext cx="914400" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.29842</cdr:x>
+      <cdr:y>0.87153</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48814</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A6FBAD-9177-4579-933E-23D9AAF26606}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1438275" y="2390774"/>
+          <a:ext cx="914400" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.29842</cdr:x>
+      <cdr:y>0.87153</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48814</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A6FBAD-9177-4579-933E-23D9AAF26606}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1438275" y="2390774"/>
+          <a:ext cx="914400" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -5927,8 +10167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7955FCB8-867E-43F2-8076-D8AB814E01C6}">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7325,10 +11565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B442ED4B-69CD-429B-93EE-E4EE92BF073B}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7339,15 +11579,15 @@
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" customWidth="1"/>
     <col min="15" max="15" width="15.85546875" customWidth="1"/>
     <col min="16" max="16" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7390,8 +11630,11 @@
       <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -7402,30 +11645,48 @@
         <f>1/B2*1000000</f>
         <v>3125</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15" t="e">
+      <c r="D2" s="16">
+        <v>25</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1881.25</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1903.125</v>
+      </c>
+      <c r="G2" s="14">
+        <v>40.625</v>
+      </c>
+      <c r="H2" s="15">
         <f>ROUNDUP(E2/D2,0)</f>
-        <v>#DIV/0!</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <f>1/J2*1000000</f>
         <v>320</v>
       </c>
       <c r="J2" s="12">
-        <f>ROUNDUP(C2,0)</f>
+        <f t="shared" ref="J2:J23" si="0">ROUNDUP(C2,0)</f>
         <v>3125</v>
       </c>
       <c r="K2" s="12">
         <v>0</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="L2" s="7">
+        <v>45554</v>
+      </c>
+      <c r="M2" s="8">
+        <v>456</v>
+      </c>
+      <c r="N2" s="10">
+        <v>78235030</v>
+      </c>
+      <c r="O2">
+        <f>F2/1000</f>
+        <v>1.903125</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -7436,30 +11697,48 @@
         <f>1/B3*1000000</f>
         <v>2500</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15" t="e">
-        <f t="shared" ref="H3:H23" si="0">ROUNDUP(E3/D3,0)</f>
-        <v>#DIV/0!</v>
+      <c r="D3" s="16">
+        <v>25</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1555</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1577.5</v>
+      </c>
+      <c r="G3" s="14">
+        <v>37.5</v>
+      </c>
+      <c r="H3" s="15">
+        <f t="shared" ref="H3:H23" si="1">ROUNDUP(E3/D3,0)</f>
+        <v>63</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I23" si="1">1/J3*1000000</f>
+        <f t="shared" ref="I3:I23" si="2">1/J3*1000000</f>
         <v>400</v>
       </c>
       <c r="J3" s="12">
-        <f>ROUNDUP(C3,0)</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="K3" s="12">
         <v>1</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="L3" s="7">
+        <v>42978</v>
+      </c>
+      <c r="M3" s="8">
+        <v>312</v>
+      </c>
+      <c r="N3" s="10">
+        <v>64844520</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O23" si="3">F3/1000</f>
+        <v>1.5774999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -7467,33 +11746,51 @@
         <v>480</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C23" si="2">1/B4*1000000</f>
+        <f t="shared" ref="C4:C23" si="4">1/B4*1000000</f>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15" t="e">
+      <c r="D4" s="16">
+        <v>25.007999999999999</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1337.9280000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1352.5160000000001</v>
+      </c>
+      <c r="G4" s="14">
+        <v>35.427999999999997</v>
+      </c>
+      <c r="H4" s="15">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>479.84644913627636</v>
+      </c>
+      <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>479.84644913627636</v>
-      </c>
-      <c r="J4" s="12">
-        <f>ROUNDUP(C4,0)</f>
         <v>2084</v>
       </c>
       <c r="K4" s="12">
         <v>2</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="L4" s="7">
+        <v>34665</v>
+      </c>
+      <c r="M4" s="8">
+        <v>312</v>
+      </c>
+      <c r="N4" s="10">
+        <v>55578660</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>1.3525160000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -7501,33 +11798,51 @@
         <v>560</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" si="4"/>
+        <v>1785.7142857142856</v>
+      </c>
+      <c r="D5" s="16">
+        <v>25.004000000000001</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1182.3320000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1201.9780000000001</v>
+      </c>
+      <c r="G5" s="14">
+        <v>33.933999999999997</v>
+      </c>
+      <c r="H5" s="15">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="2"/>
-        <v>1785.7142857142856</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15" t="e">
+        <v>559.91041433370663</v>
+      </c>
+      <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>559.91041433370663</v>
-      </c>
-      <c r="J5" s="12">
-        <f>ROUNDUP(C5,0)</f>
         <v>1786</v>
       </c>
       <c r="K5" s="12">
         <v>3</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
+      <c r="L5" s="7">
+        <v>33426</v>
+      </c>
+      <c r="M5" s="8">
+        <v>252</v>
+      </c>
+      <c r="N5" s="10">
+        <v>49404720</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>1.201978</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -7535,33 +11850,51 @@
         <v>640</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="4"/>
+        <v>1562.5</v>
+      </c>
+      <c r="D6" s="16">
+        <v>25.007999999999999</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1065.9659999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1076.9069999999999</v>
+      </c>
+      <c r="G6" s="14">
+        <v>32.823</v>
+      </c>
+      <c r="H6" s="15">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="2"/>
-        <v>1562.5</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15" t="e">
+        <v>639.79526551503511</v>
+      </c>
+      <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>639.79526551503511</v>
-      </c>
-      <c r="J6" s="12">
-        <f>ROUNDUP(C6,0)</f>
         <v>1563</v>
       </c>
       <c r="K6" s="12">
         <v>4</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+      <c r="L6" s="7">
+        <v>28829</v>
+      </c>
+      <c r="M6" s="8">
+        <v>252</v>
+      </c>
+      <c r="N6" s="10">
+        <v>44255810</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>1.0769069999999998</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -7569,33 +11902,51 @@
         <v>720</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="4"/>
+        <v>1388.8888888888889</v>
+      </c>
+      <c r="D7" s="16">
+        <v>25.001999999999999</v>
+      </c>
+      <c r="E7" s="17">
+        <v>975.07799999999997</v>
+      </c>
+      <c r="F7" s="1">
+        <v>976.46699999999998</v>
+      </c>
+      <c r="G7" s="14">
+        <v>31.946999999999999</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="2"/>
-        <v>1388.8888888888889</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15" t="e">
+        <v>719.94240460763137</v>
+      </c>
+      <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>719.94240460763137</v>
-      </c>
-      <c r="J7" s="12">
-        <f>ROUNDUP(C7,0)</f>
         <v>1389</v>
       </c>
       <c r="K7" s="12">
         <v>5</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="L7" s="7">
+        <v>26980</v>
+      </c>
+      <c r="M7" s="8">
+        <v>234</v>
+      </c>
+      <c r="N7" s="10">
+        <v>40125000</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>0.97646699999999997</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -7603,10 +11954,10 @@
         <v>800</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1250</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>25</v>
       </c>
       <c r="E8" s="17">
@@ -7619,15 +11970,15 @@
         <v>31.25</v>
       </c>
       <c r="H8" s="15">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-      <c r="J8" s="12">
-        <f>ROUNDUP(C8,0)</f>
         <v>1250</v>
       </c>
       <c r="K8" s="12">
@@ -7642,8 +11993,12 @@
       <c r="N8" s="10">
         <v>38074016</v>
       </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>0.92625000000000002</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -7651,10 +12006,10 @@
         <v>880</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1136.3636363636363</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>25.013999999999999</v>
       </c>
       <c r="E9" s="17">
@@ -7667,15 +12022,15 @@
         <v>30.699000000000002</v>
       </c>
       <c r="H9" s="15">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>879.50747581354449</v>
+      </c>
+      <c r="J9" s="12">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>879.50747581354449</v>
-      </c>
-      <c r="J9" s="12">
-        <f>ROUNDUP(C9,0)</f>
         <v>1137</v>
       </c>
       <c r="K9" s="12">
@@ -7690,8 +12045,12 @@
       <c r="N9" s="10">
         <v>35037580</v>
       </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>0.85161300000000006</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -7699,10 +12058,10 @@
         <v>960</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1041.6666666666667</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <v>25.007999999999999</v>
       </c>
       <c r="E10" s="17">
@@ -7715,15 +12074,15 @@
         <v>30.218</v>
       </c>
       <c r="H10" s="15">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>959.69289827255272</v>
+      </c>
+      <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>959.69289827255272</v>
-      </c>
-      <c r="J10" s="12">
-        <f>ROUNDUP(C10,0)</f>
         <v>1042</v>
       </c>
       <c r="K10" s="12">
@@ -7738,8 +12097,12 @@
       <c r="N10" s="10">
         <v>32980040</v>
       </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>0.80129799999999995</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>13</v>
       </c>
@@ -7747,33 +12110,51 @@
         <v>1040</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="4"/>
+        <v>961.53846153846155</v>
+      </c>
+      <c r="D11" s="16">
+        <v>25.012</v>
+      </c>
+      <c r="E11" s="17">
+        <v>752.28399999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>776.33399999999995</v>
+      </c>
+      <c r="G11" s="14">
+        <v>29.821999999999999</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="2"/>
-        <v>961.53846153846155</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15" t="e">
+        <v>1039.5010395010395</v>
+      </c>
+      <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>1039.5010395010395</v>
-      </c>
-      <c r="J11" s="12">
-        <f>ROUNDUP(C11,0)</f>
         <v>962</v>
       </c>
       <c r="K11" s="12">
         <v>9</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="L11" s="7">
+        <v>19617</v>
+      </c>
+      <c r="M11" s="8">
+        <v>186</v>
+      </c>
+      <c r="N11" s="10">
+        <v>31959256</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>0.77633399999999997</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>14</v>
       </c>
@@ -7781,33 +12162,51 @@
         <v>1120</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="4"/>
+        <v>892.85714285714278</v>
+      </c>
+      <c r="D12" s="16">
+        <v>25.004000000000001</v>
+      </c>
+      <c r="E12" s="17">
+        <v>716.18600000000004</v>
+      </c>
+      <c r="F12" s="1">
+        <v>726.00900000000001</v>
+      </c>
+      <c r="G12" s="14">
+        <v>29.469000000000001</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="2"/>
-        <v>892.85714285714278</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15" t="e">
+        <v>1119.8208286674133</v>
+      </c>
+      <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>1119.8208286674133</v>
-      </c>
-      <c r="J12" s="12">
-        <f>ROUNDUP(C12,0)</f>
         <v>893</v>
       </c>
       <c r="K12" s="12">
         <v>10</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="L12" s="7">
+        <v>20813</v>
+      </c>
+      <c r="M12" s="8">
+        <v>132</v>
+      </c>
+      <c r="N12" s="10">
+        <v>29895930</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>0.72600900000000002</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>15</v>
       </c>
@@ -7815,33 +12214,51 @@
         <v>1200</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="4"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="D13" s="16">
+        <v>25.02</v>
+      </c>
+      <c r="E13" s="17">
+        <v>685.548</v>
+      </c>
+      <c r="F13" s="1">
+        <v>701.39400000000001</v>
+      </c>
+      <c r="G13" s="14">
+        <v>29.19</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="2"/>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15" t="e">
+        <v>1199.0407673860911</v>
+      </c>
+      <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>1199.0407673860911</v>
-      </c>
-      <c r="J13" s="12">
-        <f>ROUNDUP(C13,0)</f>
         <v>834</v>
       </c>
       <c r="K13" s="12">
         <v>11</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+      <c r="L13" s="7">
+        <v>19851</v>
+      </c>
+      <c r="M13" s="8">
+        <v>132</v>
+      </c>
+      <c r="N13" s="10">
+        <v>28870768</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>0.70139399999999996</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>16</v>
       </c>
@@ -7849,32 +12266,51 @@
         <v>1280</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="4"/>
+        <v>781.25</v>
+      </c>
+      <c r="D14" s="16">
+        <v>25.024000000000001</v>
+      </c>
+      <c r="E14" s="17">
+        <v>658.44399999999996</v>
+      </c>
+      <c r="F14" s="1">
+        <v>676.43</v>
+      </c>
+      <c r="G14" s="14">
+        <v>28.934000000000001</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="2"/>
-        <v>781.25</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15" t="e">
+        <v>1278.7723785166243</v>
+      </c>
+      <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>1278.7723785166243</v>
-      </c>
-      <c r="J14" s="12">
-        <f>ROUNDUP(C14,0)</f>
         <v>782</v>
       </c>
       <c r="K14" s="12">
         <v>12</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="N14" s="8"/>
+      <c r="L14" s="7">
+        <v>19039</v>
+      </c>
+      <c r="M14" s="8">
+        <v>132</v>
+      </c>
+      <c r="N14" s="10">
+        <v>27843978</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>0.67642999999999998</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>17</v>
       </c>
@@ -7882,33 +12318,51 @@
         <v>1360</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="4"/>
+        <v>735.29411764705878</v>
+      </c>
+      <c r="D15" s="16">
+        <v>25.024000000000001</v>
+      </c>
+      <c r="E15" s="17">
+        <v>634.43200000000002</v>
+      </c>
+      <c r="F15" s="1">
+        <v>651.36</v>
+      </c>
+      <c r="G15" s="14">
+        <v>28.704000000000001</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="2"/>
-        <v>735.29411764705878</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15" t="e">
+        <v>1358.695652173913</v>
+      </c>
+      <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>1358.695652173913</v>
-      </c>
-      <c r="J15" s="12">
-        <f>ROUNDUP(C15,0)</f>
         <v>736</v>
       </c>
       <c r="K15" s="12">
         <v>13</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+      <c r="L15" s="7">
+        <v>18264</v>
+      </c>
+      <c r="M15" s="8">
+        <v>132</v>
+      </c>
+      <c r="N15" s="10">
+        <v>26815692</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>0.65136000000000005</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>18</v>
       </c>
@@ -7916,33 +12370,51 @@
         <v>1440</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="4"/>
+        <v>694.44444444444446</v>
+      </c>
+      <c r="D16" s="16">
+        <v>25.02</v>
+      </c>
+      <c r="E16" s="17">
+        <v>612.99</v>
+      </c>
+      <c r="F16" s="1">
+        <v>626.19500000000005</v>
+      </c>
+      <c r="G16" s="14">
+        <v>29.495000000000001</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="2"/>
-        <v>694.44444444444446</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15" t="e">
+        <v>1438.8489208633093</v>
+      </c>
+      <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>1438.8489208633093</v>
-      </c>
-      <c r="J16" s="12">
-        <f>ROUNDUP(C16,0)</f>
         <v>695</v>
       </c>
       <c r="K16" s="12">
         <v>14</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="L16" s="7">
+        <v>17394</v>
+      </c>
+      <c r="M16" s="8">
+        <v>132</v>
+      </c>
+      <c r="N16" s="10">
+        <v>25786042</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>0.62619500000000006</v>
+      </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>19</v>
       </c>
@@ -7950,33 +12422,51 @@
         <v>1520</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="4"/>
+        <v>657.8947368421052</v>
+      </c>
+      <c r="D17" s="16">
+        <v>25.004000000000001</v>
+      </c>
+      <c r="E17" s="17">
+        <v>593.51599999999996</v>
+      </c>
+      <c r="F17" s="1">
+        <v>600.75400000000002</v>
+      </c>
+      <c r="G17" s="14">
+        <v>28.294</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="2"/>
-        <v>657.8947368421052</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15" t="e">
+        <v>1519.7568389057751</v>
+      </c>
+      <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>1519.7568389057751</v>
-      </c>
-      <c r="J17" s="12">
-        <f>ROUNDUP(C17,0)</f>
         <v>658</v>
       </c>
       <c r="K17" s="12">
         <v>15</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="L17" s="7">
+        <v>16526</v>
+      </c>
+      <c r="M17" s="8">
+        <v>132</v>
+      </c>
+      <c r="N17" s="10">
+        <v>24755160</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>0.60075400000000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>20</v>
       </c>
@@ -7984,33 +12474,51 @@
         <v>1600</v>
       </c>
       <c r="C18" s="1">
+        <f t="shared" si="4"/>
+        <v>625</v>
+      </c>
+      <c r="D18" s="16">
+        <v>25</v>
+      </c>
+      <c r="E18" s="17">
+        <v>576.25</v>
+      </c>
+      <c r="F18" s="1">
+        <v>600.625</v>
+      </c>
+      <c r="G18" s="14">
+        <v>28.125</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="2"/>
-        <v>625</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15" t="e">
+        <v>1600</v>
+      </c>
+      <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>1600</v>
-      </c>
-      <c r="J18" s="12">
-        <f>ROUNDUP(C18,0)</f>
         <v>625</v>
       </c>
       <c r="K18" s="12">
         <v>16</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+      <c r="L18" s="7">
+        <v>16651</v>
+      </c>
+      <c r="M18" s="8">
+        <v>132</v>
+      </c>
+      <c r="N18" s="10">
+        <v>24765720</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>0.60062499999999996</v>
+      </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>21</v>
       </c>
@@ -8018,33 +12526,51 @@
         <v>1680</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="4"/>
+        <v>595.2380952380953</v>
+      </c>
+      <c r="D19" s="16">
+        <v>25.032</v>
+      </c>
+      <c r="E19" s="17">
+        <v>561.43200000000002</v>
+      </c>
+      <c r="F19" s="1">
+        <v>576.33199999999999</v>
+      </c>
+      <c r="G19" s="14">
+        <v>28.012</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="2"/>
-        <v>595.2380952380953</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15" t="e">
+        <v>1677.8523489932886</v>
+      </c>
+      <c r="J19" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>1677.8523489932886</v>
-      </c>
-      <c r="J19" s="12">
-        <f>ROUNDUP(C19,0)</f>
         <v>596</v>
       </c>
       <c r="K19" s="12">
         <v>17</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="L19" s="7">
+        <v>15775</v>
+      </c>
+      <c r="M19" s="8">
+        <v>132</v>
+      </c>
+      <c r="N19" s="10">
+        <v>23732792</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>0.57633199999999996</v>
+      </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>22</v>
       </c>
@@ -8052,67 +12578,103 @@
         <v>1760</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="4"/>
+        <v>568.18181818181813</v>
+      </c>
+      <c r="D20" s="16">
+        <v>25.036000000000001</v>
+      </c>
+      <c r="E20" s="17">
+        <v>547.37800000000004</v>
+      </c>
+      <c r="F20" s="1">
+        <v>551.36099999999999</v>
+      </c>
+      <c r="G20" s="14">
+        <v>27.881</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="2"/>
-        <v>568.18181818181813</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15" t="e">
+        <v>1757.4692442882249</v>
+      </c>
+      <c r="J20" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>1757.4692442882249</v>
-      </c>
-      <c r="J20" s="12">
-        <f>ROUNDUP(C20,0)</f>
         <v>569</v>
       </c>
       <c r="K20" s="12">
         <v>18</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="L20" s="7">
+        <v>14828</v>
+      </c>
+      <c r="M20" s="8">
+        <v>132</v>
+      </c>
+      <c r="N20" s="10">
+        <v>22698940</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>0.55136099999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1">
         <v>1840</v>
       </c>
       <c r="C21" s="1">
+        <f t="shared" si="4"/>
+        <v>543.47826086956525</v>
+      </c>
+      <c r="D21" s="16">
+        <v>25.024000000000001</v>
+      </c>
+      <c r="E21" s="17">
+        <v>534.20799999999997</v>
+      </c>
+      <c r="F21" s="1">
+        <v>551.072</v>
+      </c>
+      <c r="G21" s="14">
+        <v>27.744</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="2"/>
-        <v>543.47826086956525</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15" t="e">
+        <v>1838.2352941176471</v>
+      </c>
+      <c r="J21" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>1838.2352941176471</v>
-      </c>
-      <c r="J21" s="12">
-        <f>ROUNDUP(C21,0)</f>
         <v>544</v>
       </c>
       <c r="K21" s="12">
         <v>19</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
+      <c r="L21" s="7">
+        <v>14986</v>
+      </c>
+      <c r="M21" s="8">
+        <v>132</v>
+      </c>
+      <c r="N21" s="10">
+        <v>22707652</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="3"/>
+        <v>0.55107200000000001</v>
+      </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>24</v>
       </c>
@@ -8120,33 +12682,51 @@
         <v>1920</v>
       </c>
       <c r="C22" s="1">
+        <f t="shared" si="4"/>
+        <v>520.83333333333337</v>
+      </c>
+      <c r="D22" s="16">
+        <v>25.007999999999999</v>
+      </c>
+      <c r="E22" s="17">
+        <v>522.04200000000003</v>
+      </c>
+      <c r="F22" s="1">
+        <v>525.68899999999996</v>
+      </c>
+      <c r="G22" s="14">
+        <v>27.613</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="2"/>
-        <v>520.83333333333337</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15" t="e">
+        <v>1919.3857965451054</v>
+      </c>
+      <c r="J22" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>1919.3857965451054</v>
-      </c>
-      <c r="J22" s="12">
-        <f>ROUNDUP(C22,0)</f>
         <v>521</v>
       </c>
       <c r="K22" s="12">
         <v>20</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="L22" s="7">
+        <v>15017</v>
+      </c>
+      <c r="M22" s="8">
+        <v>112</v>
+      </c>
+      <c r="N22" s="10">
+        <v>21672150</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>0.52568899999999996</v>
+      </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>25</v>
       </c>
@@ -8154,33 +12734,53 @@
         <v>2000</v>
       </c>
       <c r="C23" s="1">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="D23" s="16">
+        <v>25</v>
+      </c>
+      <c r="E23" s="17">
+        <v>511</v>
+      </c>
+      <c r="F23" s="1">
+        <v>525.5</v>
+      </c>
+      <c r="G23" s="14">
+        <v>27.5</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15" t="e">
+        <v>2000</v>
+      </c>
+      <c r="J23" s="12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="J23" s="12">
-        <f>ROUNDUP(C23,0)</f>
         <v>500</v>
       </c>
       <c r="K23" s="12">
         <v>21</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="L23" s="7">
+        <v>15048</v>
+      </c>
+      <c r="M23" s="8">
+        <v>112</v>
+      </c>
+      <c r="N23" s="10">
+        <v>21680004</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>0.52549999999999997</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Arquivos/Excel/resultados_multicore.xlsx
+++ b/Arquivos/Excel/resultados_multicore.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Desktop\GitDesk\Arquivos\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F39A920-10D3-4D9E-9AFF-D99490760AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A251278-D27B-474B-BF02-49998272FDD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-1305" windowWidth="24240" windowHeight="13290" tabRatio="483" activeTab="1" xr2:uid="{7C13D048-D369-4CF7-941B-2AB5863FD600}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="483" activeTab="1" xr2:uid="{7C13D048-D369-4CF7-941B-2AB5863FD600}"/>
   </bookViews>
   <sheets>
     <sheet name="SSF" sheetId="7" r:id="rId1"/>
@@ -3464,8 +3464,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3474,14 +3474,35 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>frequência</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> operacional [mhz]</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3501,8 +3522,8 @@
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3539,8 +3560,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3602,8 +3623,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3612,7 +3633,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Número de processadores</a:t>
                 </a:r>
               </a:p>
@@ -3634,8 +3662,8 @@
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3666,8 +3694,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3699,8 +3727,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3709,7 +3737,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>tempo de atraso [microssegundos]</a:t>
                 </a:r>
               </a:p>
@@ -3739,8 +3774,8 @@
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3771,8 +3806,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3841,8 +3876,8 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -4378,8 +4413,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -4388,14 +4423,35 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>frequência</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> operacional [mhz]</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4415,8 +4471,8 @@
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -4453,8 +4509,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4516,8 +4572,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -4526,14 +4582,35 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Número</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:rPr lang="pt-BR" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> de elementos lógicos</a:t>
                 </a:r>
-                <a:endParaRPr lang="pt-BR"/>
+                <a:endParaRPr lang="pt-BR">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4553,8 +4630,8 @@
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -4585,8 +4662,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4618,8 +4695,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -4628,14 +4705,35 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>número</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:rPr lang="pt-BR" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> de multiplicadores</a:t>
                 </a:r>
-                <a:endParaRPr lang="pt-BR"/>
+                <a:endParaRPr lang="pt-BR">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4655,8 +4753,8 @@
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -4687,8 +4785,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4757,8 +4855,8 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -5075,8 +5173,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -5085,14 +5183,35 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>frequência</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> operacional</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5112,8 +5231,8 @@
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -5149,8 +5268,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -5212,8 +5331,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -5222,14 +5341,35 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Bits</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:rPr lang="pt-BR" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> de memória</a:t>
                 </a:r>
-                <a:endParaRPr lang="pt-BR"/>
+                <a:endParaRPr lang="pt-BR">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5249,8 +5389,8 @@
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -5281,8 +5421,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -9624,16 +9764,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>397933</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>24342</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>565807</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>170308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>510117</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>24342</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>505355</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>145521</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9663,15 +9803,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>359834</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:colOff>231813</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>144990</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>52916</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>455083</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>13432</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9700,16 +9840,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>21167</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>55559</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>156104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>5292</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>169334</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>590019</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10167,7 +10307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7955FCB8-867E-43F2-8076-D8AB814E01C6}">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="M4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
@@ -11567,8 +11707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B442ED4B-69CD-429B-93EE-E4EE92BF073B}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Arquivos/Excel/resultados_multicore.xlsx
+++ b/Arquivos/Excel/resultados_multicore.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Desktop\GitDesk\Arquivos\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A251278-D27B-474B-BF02-49998272FDD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5536AFFC-D740-4844-9AB4-24CED7D8F305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="483" activeTab="1" xr2:uid="{7C13D048-D369-4CF7-941B-2AB5863FD600}"/>
+    <workbookView xWindow="-24120" yWindow="-1305" windowWidth="24240" windowHeight="13290" tabRatio="483" activeTab="1" xr2:uid="{7C13D048-D369-4CF7-941B-2AB5863FD600}"/>
   </bookViews>
   <sheets>
     <sheet name="SSF" sheetId="7" r:id="rId1"/>
@@ -11705,10 +11705,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B442ED4B-69CD-429B-93EE-E4EE92BF073B}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12918,6 +12918,30 @@
         <v>0.52549999999999997</v>
       </c>
     </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H25" s="15">
+        <f>1-H23/H2</f>
+        <v>0.72368421052631571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <f>1-L23/L2</f>
+        <v>0.6696667691091891</v>
+      </c>
+      <c r="M27">
+        <f>1-M23/M2</f>
+        <v>0.75438596491228072</v>
+      </c>
+      <c r="N27">
+        <f>1-N23/N2</f>
+        <v>0.722886231397879</v>
+      </c>
+      <c r="O27">
+        <f>1-O23/O2</f>
+        <v>0.72387520525451565</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Arquivos/Excel/resultados_multicore.xlsx
+++ b/Arquivos/Excel/resultados_multicore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Desktop\GitDesk\Arquivos\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5536AFFC-D740-4844-9AB4-24CED7D8F305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF503D88-3FDF-4D41-8072-A4F50D5633D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-1305" windowWidth="24240" windowHeight="13290" tabRatio="483" activeTab="1" xr2:uid="{7C13D048-D369-4CF7-941B-2AB5863FD600}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="483" xr2:uid="{7C13D048-D369-4CF7-941B-2AB5863FD600}"/>
   </bookViews>
   <sheets>
     <sheet name="SSF" sheetId="7" r:id="rId1"/>
@@ -204,7 +204,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -225,6 +224,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,8 +712,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -722,14 +722,35 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>frequência</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> operacional [mhz]</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -749,8 +770,8 @@
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -787,8 +808,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -850,8 +871,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -860,7 +881,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Número de processadores</a:t>
                 </a:r>
               </a:p>
@@ -882,8 +910,8 @@
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -914,8 +942,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -948,8 +976,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -958,17 +986,37 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>tempo de atraso [</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>microssegundos</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>]</a:t>
                 </a:r>
               </a:p>
@@ -998,8 +1046,8 @@
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1030,8 +1078,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1101,8 +1149,8 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1579,8 +1627,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1589,14 +1637,35 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>frequência</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> operacional [mhz]</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1616,8 +1685,8 @@
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1654,8 +1723,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1717,8 +1786,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1727,14 +1796,35 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Número</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:rPr lang="pt-BR" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> de elementos lógicos</a:t>
                 </a:r>
-                <a:endParaRPr lang="pt-BR"/>
+                <a:endParaRPr lang="pt-BR">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1754,8 +1844,8 @@
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1786,8 +1876,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1820,8 +1910,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1830,14 +1920,35 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>número</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:rPr lang="pt-BR" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> de multiplicadores</a:t>
                 </a:r>
-                <a:endParaRPr lang="pt-BR"/>
+                <a:endParaRPr lang="pt-BR">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1857,8 +1968,8 @@
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1889,8 +2000,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1960,8 +2071,8 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2242,8 +2353,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2252,7 +2363,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ÍNDICE DO GANHO</a:t>
                 </a:r>
               </a:p>
@@ -2274,8 +2392,8 @@
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2311,8 +2429,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2374,8 +2492,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2384,7 +2502,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>RMS DO ERRO</a:t>
                 </a:r>
               </a:p>
@@ -2406,8 +2531,8 @@
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2438,8 +2563,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2661,7 +2786,7 @@
             <c:numRef>
               <c:f>SSF!$O$2:$O$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>13719156</c:v>
@@ -2769,8 +2894,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2779,14 +2904,35 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>frequência</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> operacional</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2806,8 +2952,8 @@
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2843,8 +2989,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2906,8 +3052,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2916,14 +3062,35 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Bits</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:rPr lang="pt-BR" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> de memória</a:t>
                 </a:r>
-                <a:endParaRPr lang="pt-BR"/>
+                <a:endParaRPr lang="pt-BR">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2943,8 +3110,8 @@
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2956,7 +3123,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2975,8 +3142,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -9517,8 +9684,8 @@
       <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>460375</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
@@ -10307,8 +10474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7955FCB8-867E-43F2-8076-D8AB814E01C6}">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView topLeftCell="M4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10401,17 +10568,17 @@
         <f>1/B2*1000000</f>
         <v>3125</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>186781.25</v>
       </c>
       <c r="E2" s="1">
         <f>G2*F2+J2</f>
         <v>189046.875</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>1350</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <f>ROUNDUP(D2/F2,0)+1</f>
         <v>140</v>
       </c>
@@ -10419,18 +10586,18 @@
         <f>1/I2*1000000</f>
         <v>320</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="11">
         <f>ROUNDUP(C2,0)</f>
         <v>3125</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <v>46.875</v>
       </c>
       <c r="K2">
         <f>E2/1000</f>
         <v>189.046875</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="11">
         <v>0</v>
       </c>
       <c r="M2" s="7">
@@ -10439,13 +10606,13 @@
       <c r="N2" s="8">
         <v>532</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="17">
         <v>13719156</v>
       </c>
       <c r="P2" s="4">
         <v>0</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="10">
         <v>16.212379662449301</v>
       </c>
       <c r="Y2" s="4"/>
@@ -10462,17 +10629,17 @@
         <f>1/B3*1000000</f>
         <v>2500</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>151242.5</v>
       </c>
       <c r="E3" s="1">
         <f>G3*F3+J3</f>
         <v>153942.5</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>1350</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <f t="shared" ref="G3:G23" si="0">ROUNDUP(D3/F3,0)+1</f>
         <v>114</v>
       </c>
@@ -10480,18 +10647,18 @@
         <f t="shared" ref="H3:H23" si="1">1/I3*1000000</f>
         <v>400</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <f t="shared" ref="I3:I23" si="2">ROUNDUP(C3,0)</f>
         <v>2500</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>42.5</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K23" si="3">E3/1000</f>
         <v>153.9425</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="11">
         <v>1</v>
       </c>
       <c r="M3" s="7">
@@ -10500,13 +10667,13 @@
       <c r="N3" s="8">
         <v>532</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="17">
         <v>11087632</v>
       </c>
       <c r="P3" s="4">
         <v>1</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <v>6.1994799217063896</v>
       </c>
       <c r="Y3" s="4"/>
@@ -10523,17 +10690,17 @@
         <f t="shared" ref="C4:C23" si="4">1/B4*1000000</f>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>126949.73850000001</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E23" si="5">G4*F4+J4</f>
         <v>129639.5865</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>1350</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
@@ -10541,33 +10708,33 @@
         <f t="shared" si="1"/>
         <v>479.84644913627636</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <f t="shared" si="2"/>
         <v>2084</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>39.586500000000001</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
         <v>129.63958650000001</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="11">
         <v>2</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="9">
         <v>58330</v>
       </c>
       <c r="N4" s="6">
         <v>532</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="17">
         <v>9400042</v>
       </c>
       <c r="P4" s="4">
         <v>2</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="10">
         <v>6.4429156459154902</v>
       </c>
       <c r="Y4" s="4"/>
@@ -10584,17 +10751,17 @@
         <f t="shared" si="4"/>
         <v>1785.7142857142856</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>109405.00199999998</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="5"/>
         <v>112087.50599999999</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>1350</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
@@ -10602,33 +10769,33 @@
         <f t="shared" si="1"/>
         <v>559.91041433370663</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <f t="shared" si="2"/>
         <v>1786</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>37.506</v>
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
         <v>112.08750599999999</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <v>3</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
         <v>57149</v>
       </c>
       <c r="N5" s="6">
         <v>400</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="17">
         <v>8181341</v>
       </c>
       <c r="P5" s="4">
         <v>3</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="10">
         <v>3.4009593119310302</v>
       </c>
       <c r="Y5" s="4"/>
@@ -10645,17 +10812,17 @@
         <f t="shared" si="4"/>
         <v>1562.5</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>95885.9375</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="5"/>
         <v>98585.9375</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>1350</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
@@ -10663,33 +10830,33 @@
         <f t="shared" si="1"/>
         <v>639.79526551503511</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <f t="shared" si="2"/>
         <v>1563</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>35.9375</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
         <v>98.5859375</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="11">
         <v>4</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="9">
         <v>49590</v>
       </c>
       <c r="N6" s="6">
         <v>400</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="17">
         <v>7242537</v>
       </c>
       <c r="P6" s="4">
         <v>4</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="10">
         <v>2.4363095817896099</v>
       </c>
       <c r="Y6" s="4"/>
@@ -10706,17 +10873,17 @@
         <f t="shared" si="4"/>
         <v>1388.8888888888889</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>85091.52900000001</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="5"/>
         <v>87784.725000000006</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>1350</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -10724,33 +10891,33 @@
         <f t="shared" si="1"/>
         <v>719.94240460763137</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <f t="shared" si="2"/>
         <v>1389</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>34.725000000000001</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
         <v>87.784725000000009</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>5</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <v>49607</v>
       </c>
       <c r="N7" s="6">
         <v>308</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="17">
         <v>6489647</v>
       </c>
       <c r="P7" s="4">
         <v>5</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="10">
         <v>2.1643141369056398</v>
       </c>
       <c r="Y7" s="4"/>
@@ -10767,17 +10934,17 @@
         <f t="shared" si="4"/>
         <v>1250</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>76983.75</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="5"/>
         <v>79683.75</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>1350</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
@@ -10785,33 +10952,33 @@
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>33.75</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
         <v>79.683750000000003</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <v>6</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <v>45052</v>
       </c>
       <c r="N8" s="6">
         <v>308</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="17">
         <v>5926827</v>
       </c>
       <c r="P8" s="4">
         <v>6</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="10">
         <v>2.1967323589023602</v>
       </c>
       <c r="Y8" s="4"/>
@@ -10828,17 +10995,17 @@
         <f t="shared" si="4"/>
         <v>1136.3636363636363</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>70241.382499999992</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="5"/>
         <v>72932.958499999993</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>1350</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
@@ -10846,33 +11013,33 @@
         <f t="shared" si="1"/>
         <v>879.50747581354449</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <f t="shared" si="2"/>
         <v>1137</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>32.958500000000001</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
         <v>72.932958499999998</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <v>7</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <v>41267</v>
       </c>
       <c r="N9" s="6">
         <v>308</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="17">
         <v>5460964</v>
       </c>
       <c r="P9" s="4">
         <v>7</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="10">
         <v>2.15821763569675</v>
       </c>
       <c r="Y9" s="4"/>
@@ -10889,17 +11056,17 @@
         <f t="shared" si="4"/>
         <v>1041.6666666666667</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>64853.038000000008</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="5"/>
         <v>67532.301999999996</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>1350</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -10907,33 +11074,33 @@
         <f t="shared" si="1"/>
         <v>959.69289827255272</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <f t="shared" si="2"/>
         <v>1042</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>32.302</v>
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
         <v>67.532302000000001</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="11">
         <v>8</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="9">
         <v>39684</v>
       </c>
       <c r="N10" s="6">
         <v>288</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="17">
         <v>5089136</v>
       </c>
       <c r="P10" s="4">
         <v>8</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="10">
         <v>2.19944143780836</v>
       </c>
       <c r="Y10" s="4"/>
@@ -10950,17 +11117,17 @@
         <f t="shared" si="4"/>
         <v>961.53846153846155</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>59460.257999999994</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="5"/>
         <v>62131.745999999999</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>1350</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
@@ -10968,33 +11135,33 @@
         <f t="shared" si="1"/>
         <v>1039.5010395010395</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <f t="shared" si="2"/>
         <v>962</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>31.745999999999999</v>
       </c>
       <c r="K11">
         <f t="shared" si="3"/>
         <v>62.131746</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <v>9</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="9">
         <v>38241</v>
       </c>
       <c r="N11" s="6">
         <v>264</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="17">
         <v>4709100</v>
       </c>
       <c r="P11" s="4">
         <v>9</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="10">
         <v>2.18471846914899</v>
       </c>
       <c r="Y11" s="4"/>
@@ -11011,17 +11178,17 @@
         <f t="shared" si="4"/>
         <v>892.85714285714278</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>55390.11099999999</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="5"/>
         <v>58081.254999999997</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>1350</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -11029,33 +11196,33 @@
         <f t="shared" si="1"/>
         <v>1119.8208286674133</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <f t="shared" si="2"/>
         <v>893</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>31.254999999999999</v>
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
         <v>58.081254999999999</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="11">
         <v>10</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="9">
         <v>37974</v>
       </c>
       <c r="N12" s="6">
         <v>232</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="17">
         <v>4429203</v>
       </c>
       <c r="P12" s="4">
         <v>10</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="10">
         <v>2.1986445153728802</v>
       </c>
       <c r="Y12" s="4"/>
@@ -11072,17 +11239,17 @@
         <f t="shared" si="4"/>
         <v>833.33333333333337</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>51341.099500000004</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="5"/>
         <v>54030.839500000002</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>1350</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -11090,33 +11257,33 @@
         <f t="shared" si="1"/>
         <v>1199.0407673860911</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <f t="shared" si="2"/>
         <v>834</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>30.839500000000001</v>
       </c>
       <c r="K13">
         <f t="shared" si="3"/>
         <v>54.030839499999999</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <v>11</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="9">
         <v>36064</v>
       </c>
       <c r="N13" s="7">
         <v>228</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="17">
         <v>4143150</v>
       </c>
       <c r="P13" s="4">
         <v>11</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="10">
         <v>2.20296187623845</v>
       </c>
       <c r="Y13" s="4"/>
@@ -11133,17 +11300,17 @@
         <f t="shared" si="4"/>
         <v>781.25</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>48646.030500000001</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="5"/>
         <v>51330.478499999997</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>1350</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -11151,33 +11318,33 @@
         <f t="shared" si="1"/>
         <v>1278.7723785166243</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <f t="shared" si="2"/>
         <v>782</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>30.4785</v>
       </c>
       <c r="K14">
         <f t="shared" si="3"/>
         <v>51.330478499999998</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="11">
         <v>12</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="9">
         <v>35321</v>
       </c>
       <c r="N14" s="7">
         <v>216</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="17">
         <v>3961340</v>
       </c>
       <c r="P14" s="4">
         <v>12</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="10">
         <v>2.1994092317612699</v>
       </c>
       <c r="Y14" s="4"/>
@@ -11194,17 +11361,17 @@
         <f t="shared" si="4"/>
         <v>735.29411764705878</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>45943.0075</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="5"/>
         <v>48630.155500000001</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>1350</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -11212,33 +11379,33 @@
         <f t="shared" si="1"/>
         <v>1358.695652173913</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <f t="shared" si="2"/>
         <v>736</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>30.1555</v>
       </c>
       <c r="K15">
         <f t="shared" si="3"/>
         <v>48.630155500000001</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="11">
         <v>13</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="9">
         <v>34615</v>
       </c>
       <c r="N15" s="7">
         <v>204</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="17">
         <v>3775426</v>
       </c>
       <c r="P15" s="4">
         <v>13</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="10">
         <v>2.20021136956119</v>
       </c>
       <c r="Y15" s="4"/>
@@ -11255,17 +11422,17 @@
         <f t="shared" si="4"/>
         <v>694.44444444444446</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>43233.319499999998</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="5"/>
         <v>45929.863499999999</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>1350</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="14">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -11273,33 +11440,33 @@
         <f t="shared" si="1"/>
         <v>1438.8489208633093</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <f t="shared" si="2"/>
         <v>695</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>29.863499999999998</v>
       </c>
       <c r="K16">
         <f t="shared" si="3"/>
         <v>45.929863499999996</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="11">
         <v>14</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="9">
         <v>33880</v>
       </c>
       <c r="N16" s="7">
         <v>192</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="17">
         <v>3585408</v>
       </c>
       <c r="P16" s="4">
         <v>14</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="10">
         <v>2.2008451582039701</v>
       </c>
       <c r="Y16" s="4"/>
@@ -11316,17 +11483,17 @@
         <f t="shared" si="4"/>
         <v>657.8947368421052</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>41886.305999999997</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="5"/>
         <v>44579.61</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>1350</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -11334,33 +11501,33 @@
         <f t="shared" si="1"/>
         <v>1519.7568389057751</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <f t="shared" si="2"/>
         <v>658</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>29.61</v>
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
         <v>44.579610000000002</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="11">
         <v>15</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="9">
         <v>33510</v>
       </c>
       <c r="N17" s="7">
         <v>186</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="17">
         <v>3504763</v>
       </c>
       <c r="P17" s="4">
         <v>15</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="10">
         <v>2.2006481796600599</v>
       </c>
       <c r="Y17" s="4"/>
@@ -11377,17 +11544,17 @@
         <f t="shared" si="4"/>
         <v>625</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>39179.375</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="5"/>
         <v>41879.375</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>1350</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="14">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -11395,27 +11562,27 @@
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <f t="shared" si="2"/>
         <v>625</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>29.375</v>
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
         <v>41.879375000000003</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="11">
         <v>16</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="9">
         <v>32786</v>
       </c>
       <c r="N18" s="7">
         <v>174</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="17">
         <v>3307563</v>
       </c>
       <c r="Y18" s="4"/>
@@ -11432,17 +11599,17 @@
         <f t="shared" si="4"/>
         <v>595.2380952380953</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>37845.811499999996</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="5"/>
         <v>40529.179499999998</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>1350</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -11450,27 +11617,27 @@
         <f t="shared" si="1"/>
         <v>1677.8523489932886</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="11">
         <f t="shared" si="2"/>
         <v>596</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="13">
         <v>29.179500000000001</v>
       </c>
       <c r="K19">
         <f t="shared" si="3"/>
         <v>40.529179499999998</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="11">
         <v>17</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="9">
         <v>32426</v>
       </c>
       <c r="N19" s="7">
         <v>168</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19" s="17">
         <v>3221788</v>
       </c>
       <c r="Y19" s="4"/>
@@ -11487,17 +11654,17 @@
         <f t="shared" si="4"/>
         <v>568.18181818181813</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>36499.405500000001</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="5"/>
         <v>39178.993499999997</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>1350</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="14">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -11505,27 +11672,27 @@
         <f t="shared" si="1"/>
         <v>1757.4692442882249</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="11">
         <f t="shared" si="2"/>
         <v>569</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>28.993500000000001</v>
       </c>
       <c r="K20">
         <f t="shared" si="3"/>
         <v>39.178993499999997</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="11">
         <v>18</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="9">
         <v>34317</v>
       </c>
       <c r="N20" s="7">
         <v>162</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="17">
         <v>3133961</v>
       </c>
       <c r="Y20" s="4"/>
@@ -11542,17 +11709,17 @@
         <f t="shared" si="4"/>
         <v>543.47826086956525</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>35130.209500000004</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="5"/>
         <v>37828.805500000002</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>1350</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -11560,27 +11727,27 @@
         <f t="shared" si="1"/>
         <v>1838.2352941176471</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <f t="shared" si="2"/>
         <v>544</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="13">
         <v>28.805499999999999</v>
       </c>
       <c r="K21">
         <f t="shared" si="3"/>
         <v>37.828805500000001</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="11">
         <v>19</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="9">
         <v>33633</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="9">
         <v>156</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="17">
         <v>3044082</v>
       </c>
       <c r="Y21" s="4"/>
@@ -11597,17 +11764,17 @@
         <f t="shared" si="4"/>
         <v>520.83333333333337</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>33789.455000000002</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="5"/>
         <v>36478.654999999999</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <v>1350</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -11615,27 +11782,27 @@
         <f t="shared" si="1"/>
         <v>1919.3857965451054</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="11">
         <f t="shared" si="2"/>
         <v>521</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="13">
         <v>28.655000000000001</v>
       </c>
       <c r="K22">
         <f t="shared" si="3"/>
         <v>36.478654999999996</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="11">
         <v>20</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="9">
         <v>32943</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="9">
         <v>150</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="17">
         <v>2952151</v>
       </c>
       <c r="Y22" s="4"/>
@@ -11652,17 +11819,17 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <v>32428.5</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="5"/>
         <v>35128.5</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <v>1350</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -11670,27 +11837,27 @@
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="11">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="13">
         <v>28.5</v>
       </c>
       <c r="K23">
         <f t="shared" si="3"/>
         <v>35.128500000000003</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="11">
         <v>21</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="9">
         <v>32216</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="9">
         <v>144</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="17">
         <v>2858168</v>
       </c>
       <c r="Y23" s="4"/>
@@ -11707,7 +11874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B442ED4B-69CD-429B-93EE-E4EE92BF073B}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
@@ -11785,19 +11952,19 @@
         <f>1/B2*1000000</f>
         <v>3125</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>25</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>1881.25</v>
       </c>
       <c r="F2" s="1">
         <v>1903.125</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <v>40.625</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="14">
         <f>ROUNDUP(E2/D2,0)</f>
         <v>76</v>
       </c>
@@ -11805,11 +11972,11 @@
         <f>1/J2*1000000</f>
         <v>320</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
         <f t="shared" ref="J2:J23" si="0">ROUNDUP(C2,0)</f>
         <v>3125</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="11">
         <v>0</v>
       </c>
       <c r="L2" s="7">
@@ -11818,7 +11985,7 @@
       <c r="M2" s="8">
         <v>456</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="9">
         <v>78235030</v>
       </c>
       <c r="O2">
@@ -11837,19 +12004,19 @@
         <f>1/B3*1000000</f>
         <v>2500</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>25</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>1555</v>
       </c>
       <c r="F3" s="1">
         <v>1577.5</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>37.5</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <f t="shared" ref="H3:H23" si="1">ROUNDUP(E3/D3,0)</f>
         <v>63</v>
       </c>
@@ -11857,11 +12024,11 @@
         <f t="shared" ref="I3:I23" si="2">1/J3*1000000</f>
         <v>400</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <v>1</v>
       </c>
       <c r="L3" s="7">
@@ -11870,7 +12037,7 @@
       <c r="M3" s="8">
         <v>312</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="9">
         <v>64844520</v>
       </c>
       <c r="O3">
@@ -11889,19 +12056,19 @@
         <f t="shared" ref="C4:C23" si="4">1/B4*1000000</f>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>25.007999999999999</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>1337.9280000000001</v>
       </c>
       <c r="F4" s="1">
         <v>1352.5160000000001</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>35.427999999999997</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
@@ -11909,11 +12076,11 @@
         <f t="shared" si="2"/>
         <v>479.84644913627636</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <f t="shared" si="0"/>
         <v>2084</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <v>2</v>
       </c>
       <c r="L4" s="7">
@@ -11922,7 +12089,7 @@
       <c r="M4" s="8">
         <v>312</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="9">
         <v>55578660</v>
       </c>
       <c r="O4">
@@ -11941,19 +12108,19 @@
         <f t="shared" si="4"/>
         <v>1785.7142857142856</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>25.004000000000001</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>1182.3320000000001</v>
       </c>
       <c r="F5" s="1">
         <v>1201.9780000000001</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>33.933999999999997</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
@@ -11961,11 +12128,11 @@
         <f t="shared" si="2"/>
         <v>559.91041433370663</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <f t="shared" si="0"/>
         <v>1786</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>3</v>
       </c>
       <c r="L5" s="7">
@@ -11974,7 +12141,7 @@
       <c r="M5" s="8">
         <v>252</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="9">
         <v>49404720</v>
       </c>
       <c r="O5">
@@ -11993,19 +12160,19 @@
         <f t="shared" si="4"/>
         <v>1562.5</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>25.007999999999999</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>1065.9659999999999</v>
       </c>
       <c r="F6" s="1">
         <v>1076.9069999999999</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>32.823</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
@@ -12013,11 +12180,11 @@
         <f t="shared" si="2"/>
         <v>639.79526551503511</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <f t="shared" si="0"/>
         <v>1563</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <v>4</v>
       </c>
       <c r="L6" s="7">
@@ -12026,7 +12193,7 @@
       <c r="M6" s="8">
         <v>252</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="9">
         <v>44255810</v>
       </c>
       <c r="O6">
@@ -12045,19 +12212,19 @@
         <f t="shared" si="4"/>
         <v>1388.8888888888889</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>25.001999999999999</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>975.07799999999997</v>
       </c>
       <c r="F7" s="1">
         <v>976.46699999999998</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>31.946999999999999</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -12065,11 +12232,11 @@
         <f t="shared" si="2"/>
         <v>719.94240460763137</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <f t="shared" si="0"/>
         <v>1389</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>5</v>
       </c>
       <c r="L7" s="7">
@@ -12078,7 +12245,7 @@
       <c r="M7" s="8">
         <v>234</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <v>40125000</v>
       </c>
       <c r="O7">
@@ -12097,19 +12264,19 @@
         <f t="shared" si="4"/>
         <v>1250</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>25</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>925</v>
       </c>
       <c r="F8" s="1">
         <v>926.25</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>31.25</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
@@ -12117,11 +12284,11 @@
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <f t="shared" si="0"/>
         <v>1250</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>6</v>
       </c>
       <c r="L8" s="7">
@@ -12130,7 +12297,7 @@
       <c r="M8" s="8">
         <v>222</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="9">
         <v>38074016</v>
       </c>
       <c r="O8">
@@ -12149,19 +12316,19 @@
         <f t="shared" si="4"/>
         <v>1136.3636363636363</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>25.013999999999999</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>850.476</v>
       </c>
       <c r="F9" s="1">
         <v>851.61300000000006</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>30.699000000000002</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
@@ -12169,11 +12336,11 @@
         <f t="shared" si="2"/>
         <v>879.50747581354449</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <f t="shared" si="0"/>
         <v>1137</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <v>7</v>
       </c>
       <c r="L9" s="7">
@@ -12182,7 +12349,7 @@
       <c r="M9" s="8">
         <v>204</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="9">
         <v>35037580</v>
       </c>
       <c r="O9">
@@ -12201,19 +12368,19 @@
         <f t="shared" si="4"/>
         <v>1041.6666666666667</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>25.007999999999999</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>794.00400000000002</v>
       </c>
       <c r="F10" s="1">
         <v>801.298</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>30.218</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
@@ -12221,11 +12388,11 @@
         <f t="shared" si="2"/>
         <v>959.69289827255272</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <f t="shared" si="0"/>
         <v>1042</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="11">
         <v>8</v>
       </c>
       <c r="L10" s="7">
@@ -12234,7 +12401,7 @@
       <c r="M10" s="8">
         <v>192</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="9">
         <v>32980040</v>
       </c>
       <c r="O10">
@@ -12253,19 +12420,19 @@
         <f t="shared" si="4"/>
         <v>961.53846153846155</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>25.012</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>752.28399999999999</v>
       </c>
       <c r="F11" s="1">
         <v>776.33399999999995</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>29.821999999999999</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
@@ -12273,11 +12440,11 @@
         <f t="shared" si="2"/>
         <v>1039.5010395010395</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <f t="shared" si="0"/>
         <v>962</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <v>9</v>
       </c>
       <c r="L11" s="7">
@@ -12286,7 +12453,7 @@
       <c r="M11" s="8">
         <v>186</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="9">
         <v>31959256</v>
       </c>
       <c r="O11">
@@ -12305,19 +12472,19 @@
         <f t="shared" si="4"/>
         <v>892.85714285714278</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>25.004000000000001</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>716.18600000000004</v>
       </c>
       <c r="F12" s="1">
         <v>726.00900000000001</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>29.469000000000001</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="14">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
@@ -12325,11 +12492,11 @@
         <f t="shared" si="2"/>
         <v>1119.8208286674133</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <f t="shared" si="0"/>
         <v>893</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="11">
         <v>10</v>
       </c>
       <c r="L12" s="7">
@@ -12338,7 +12505,7 @@
       <c r="M12" s="8">
         <v>132</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="9">
         <v>29895930</v>
       </c>
       <c r="O12">
@@ -12357,19 +12524,19 @@
         <f t="shared" si="4"/>
         <v>833.33333333333337</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>25.02</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <v>685.548</v>
       </c>
       <c r="F13" s="1">
         <v>701.39400000000001</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>29.19</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -12377,11 +12544,11 @@
         <f t="shared" si="2"/>
         <v>1199.0407673860911</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <f t="shared" si="0"/>
         <v>834</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>11</v>
       </c>
       <c r="L13" s="7">
@@ -12390,7 +12557,7 @@
       <c r="M13" s="8">
         <v>132</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="9">
         <v>28870768</v>
       </c>
       <c r="O13">
@@ -12409,19 +12576,19 @@
         <f t="shared" si="4"/>
         <v>781.25</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>25.024000000000001</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <v>658.44399999999996</v>
       </c>
       <c r="F14" s="1">
         <v>676.43</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>28.934000000000001</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
@@ -12429,11 +12596,11 @@
         <f t="shared" si="2"/>
         <v>1278.7723785166243</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <f t="shared" si="0"/>
         <v>782</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="11">
         <v>12</v>
       </c>
       <c r="L14" s="7">
@@ -12442,7 +12609,7 @@
       <c r="M14" s="8">
         <v>132</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="9">
         <v>27843978</v>
       </c>
       <c r="O14">
@@ -12461,19 +12628,19 @@
         <f t="shared" si="4"/>
         <v>735.29411764705878</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <v>25.024000000000001</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>634.43200000000002</v>
       </c>
       <c r="F15" s="1">
         <v>651.36</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>28.704000000000001</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
@@ -12481,11 +12648,11 @@
         <f t="shared" si="2"/>
         <v>1358.695652173913</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <f t="shared" si="0"/>
         <v>736</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="11">
         <v>13</v>
       </c>
       <c r="L15" s="7">
@@ -12494,7 +12661,7 @@
       <c r="M15" s="8">
         <v>132</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="9">
         <v>26815692</v>
       </c>
       <c r="O15">
@@ -12513,19 +12680,19 @@
         <f t="shared" si="4"/>
         <v>694.44444444444446</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <v>25.02</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>612.99</v>
       </c>
       <c r="F16" s="1">
         <v>626.19500000000005</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>29.495000000000001</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="14">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -12533,11 +12700,11 @@
         <f t="shared" si="2"/>
         <v>1438.8489208633093</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="11">
         <f t="shared" si="0"/>
         <v>695</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="11">
         <v>14</v>
       </c>
       <c r="L16" s="7">
@@ -12546,7 +12713,7 @@
       <c r="M16" s="8">
         <v>132</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="9">
         <v>25786042</v>
       </c>
       <c r="O16">
@@ -12565,19 +12732,19 @@
         <f t="shared" si="4"/>
         <v>657.8947368421052</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <v>25.004000000000001</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="16">
         <v>593.51599999999996</v>
       </c>
       <c r="F17" s="1">
         <v>600.75400000000002</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>28.294</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -12585,11 +12752,11 @@
         <f t="shared" si="2"/>
         <v>1519.7568389057751</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <f t="shared" si="0"/>
         <v>658</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="11">
         <v>15</v>
       </c>
       <c r="L17" s="7">
@@ -12598,7 +12765,7 @@
       <c r="M17" s="8">
         <v>132</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="9">
         <v>24755160</v>
       </c>
       <c r="O17">
@@ -12617,19 +12784,19 @@
         <f t="shared" si="4"/>
         <v>625</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <v>25</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>576.25</v>
       </c>
       <c r="F18" s="1">
         <v>600.625</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>28.125</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="14">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -12637,11 +12804,11 @@
         <f t="shared" si="2"/>
         <v>1600</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="11">
         <f t="shared" si="0"/>
         <v>625</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="11">
         <v>16</v>
       </c>
       <c r="L18" s="7">
@@ -12650,7 +12817,7 @@
       <c r="M18" s="8">
         <v>132</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="9">
         <v>24765720</v>
       </c>
       <c r="O18">
@@ -12669,19 +12836,19 @@
         <f t="shared" si="4"/>
         <v>595.2380952380953</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>25.032</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="16">
         <v>561.43200000000002</v>
       </c>
       <c r="F19" s="1">
         <v>576.33199999999999</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <v>28.012</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="14">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
@@ -12689,11 +12856,11 @@
         <f t="shared" si="2"/>
         <v>1677.8523489932886</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="11">
         <f t="shared" si="0"/>
         <v>596</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="11">
         <v>17</v>
       </c>
       <c r="L19" s="7">
@@ -12702,7 +12869,7 @@
       <c r="M19" s="8">
         <v>132</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="9">
         <v>23732792</v>
       </c>
       <c r="O19">
@@ -12721,19 +12888,19 @@
         <f t="shared" si="4"/>
         <v>568.18181818181813</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <v>25.036000000000001</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="16">
         <v>547.37800000000004</v>
       </c>
       <c r="F20" s="1">
         <v>551.36099999999999</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>27.881</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="14">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
@@ -12741,11 +12908,11 @@
         <f t="shared" si="2"/>
         <v>1757.4692442882249</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="11">
         <f t="shared" si="0"/>
         <v>569</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="11">
         <v>18</v>
       </c>
       <c r="L20" s="7">
@@ -12754,7 +12921,7 @@
       <c r="M20" s="8">
         <v>132</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="9">
         <v>22698940</v>
       </c>
       <c r="O20">
@@ -12773,19 +12940,19 @@
         <f t="shared" si="4"/>
         <v>543.47826086956525</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <v>25.024000000000001</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="16">
         <v>534.20799999999997</v>
       </c>
       <c r="F21" s="1">
         <v>551.072</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <v>27.744</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
@@ -12793,11 +12960,11 @@
         <f t="shared" si="2"/>
         <v>1838.2352941176471</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <f t="shared" si="0"/>
         <v>544</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="11">
         <v>19</v>
       </c>
       <c r="L21" s="7">
@@ -12806,7 +12973,7 @@
       <c r="M21" s="8">
         <v>132</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="9">
         <v>22707652</v>
       </c>
       <c r="O21">
@@ -12825,19 +12992,19 @@
         <f t="shared" si="4"/>
         <v>520.83333333333337</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <v>25.007999999999999</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="16">
         <v>522.04200000000003</v>
       </c>
       <c r="F22" s="1">
         <v>525.68899999999996</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <v>27.613</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="14">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -12845,11 +13012,11 @@
         <f t="shared" si="2"/>
         <v>1919.3857965451054</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="11">
         <f t="shared" si="0"/>
         <v>521</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="11">
         <v>20</v>
       </c>
       <c r="L22" s="7">
@@ -12858,7 +13025,7 @@
       <c r="M22" s="8">
         <v>112</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="9">
         <v>21672150</v>
       </c>
       <c r="O22">
@@ -12877,19 +13044,19 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <v>25</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="16">
         <v>511</v>
       </c>
       <c r="F23" s="1">
         <v>525.5</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <v>27.5</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="14">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -12897,11 +13064,11 @@
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="11">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="11">
         <v>21</v>
       </c>
       <c r="L23" s="7">
@@ -12910,7 +13077,7 @@
       <c r="M23" s="8">
         <v>112</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="9">
         <v>21680004</v>
       </c>
       <c r="O23">
@@ -12919,7 +13086,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H25" s="15">
+      <c r="H25" s="14">
         <f>1-H23/H2</f>
         <v>0.72368421052631571</v>
       </c>
